--- a/PROJECTS/project_07_sudoku_solver/characteristics.xlsx
+++ b/PROJECTS/project_07_sudoku_solver/characteristics.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTROS\PROGRAMMING\ARTIFICIAL_VISION\OPENCV_BASICS\PROJECTS\project_07_sudoku_solver\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="chars_for_sudoku" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="9">
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -28,6 +39,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -37,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,11 +89,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -121,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,9 +175,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,6 +210,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,49 +386,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="C1">
-        <v>101.5</v>
+        <v>66.5</v>
       </c>
       <c r="D1">
-        <v>0.3333333333333333</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="E1">
-        <v>79.69848430156708</v>
+        <v>57.899494767189033</v>
       </c>
       <c r="F1">
-        <v>0.7726593699945699</v>
+        <v>0.68419612167585575</v>
       </c>
       <c r="G1">
-        <v>0.4893615747255199</v>
+        <v>0.41373391732065767</v>
       </c>
       <c r="H1">
-        <v>0.005851774530176854</v>
+        <v>7.835298081887368E-2</v>
       </c>
       <c r="I1">
-        <v>0.004078566487314577</v>
+        <v>6.0683279687530962E-2</v>
       </c>
       <c r="J1">
-        <v>1.977552681239141E-05</v>
+        <v>4.1839777861848388E-3</v>
       </c>
       <c r="K1">
         <v>13</v>
       </c>
       <c r="L1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -413,174 +437,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="C2">
-        <v>101.5</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>0.3333333333333333</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="E2">
-        <v>79.69848430156708</v>
+        <v>74.284270763397217</v>
       </c>
       <c r="F2">
-        <v>0.77265936999457</v>
+        <v>0.65841634807527605</v>
       </c>
       <c r="G2">
-        <v>0.4893615747255198</v>
+        <v>0.31582792245884611</v>
       </c>
       <c r="H2">
-        <v>0.005851774530176481</v>
+        <v>7.6355840535682219E-3</v>
       </c>
       <c r="I2">
-        <v>0.004078566487314623</v>
+        <v>5.7546883308337319E-3</v>
       </c>
       <c r="J2">
-        <v>1.977552681239118E-05</v>
+        <v>3.793189821934134E-5</v>
       </c>
       <c r="K2">
         <v>12</v>
       </c>
       <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>243</v>
+      </c>
+      <c r="C3">
+        <v>101.5</v>
+      </c>
+      <c r="D3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3">
+        <v>79.698484301567078</v>
+      </c>
+      <c r="F3">
+        <v>0.77265936999456986</v>
+      </c>
+      <c r="G3">
+        <v>0.48936157472551989</v>
+      </c>
+      <c r="H3">
+        <v>5.8517745301768544E-3</v>
+      </c>
+      <c r="I3">
+        <v>4.0785664873145772E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.9775526812391409E-5</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
         <v>29</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>208</v>
-      </c>
-      <c r="C3">
-        <v>103.5</v>
-      </c>
-      <c r="D3">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E3">
-        <v>78.04163014888763</v>
-      </c>
-      <c r="F3">
-        <v>0.6989591217894111</v>
-      </c>
-      <c r="G3">
-        <v>0.3952599333938154</v>
-      </c>
-      <c r="H3">
-        <v>0.004772959063328892</v>
-      </c>
-      <c r="I3">
-        <v>0.004773948842590206</v>
-      </c>
-      <c r="J3">
-        <v>2.278420343654109E-05</v>
-      </c>
-      <c r="K3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>184</v>
+      </c>
+      <c r="C4">
+        <v>81.5</v>
+      </c>
+      <c r="D4">
+        <v>0.34782608695652167</v>
+      </c>
+      <c r="E4">
+        <v>70.870057225227356</v>
+      </c>
+      <c r="F4">
+        <v>0.6935840655459925</v>
+      </c>
+      <c r="G4">
+        <v>0.36555591433111062</v>
+      </c>
+      <c r="H4">
+        <v>3.1358855193797568E-3</v>
+      </c>
+      <c r="I4">
+        <v>1.5899156552452449E-3</v>
+      </c>
+      <c r="J4">
+        <v>3.3666173547764469E-6</v>
+      </c>
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>280</v>
-      </c>
-      <c r="C4">
-        <v>126.5</v>
-      </c>
-      <c r="D4">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="E4">
-        <v>83.35533845424652</v>
-      </c>
-      <c r="F4">
-        <v>0.6779735142784649</v>
-      </c>
-      <c r="G4">
-        <v>0.3657079523114454</v>
-      </c>
-      <c r="H4">
-        <v>0.004675409286970691</v>
-      </c>
-      <c r="I4">
-        <v>0.003063851192789563</v>
-      </c>
-      <c r="J4">
-        <v>1.148644968134285E-05</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
       <c r="L4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C5">
-        <v>107.5</v>
+        <v>101.5</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5">
-        <v>56.72792184352875</v>
+        <v>79.698484301567078</v>
       </c>
       <c r="F5">
-        <v>0.3058087911197193</v>
+        <v>0.77265936999456997</v>
       </c>
       <c r="G5">
-        <v>0.05734443081559207</v>
+        <v>0.48936157472551978</v>
       </c>
       <c r="H5">
-        <v>0.007821383735405899</v>
+        <v>5.8517745301764814E-3</v>
       </c>
       <c r="I5">
-        <v>0.002298595634702162</v>
+        <v>4.0785664873146232E-3</v>
       </c>
       <c r="J5">
-        <v>9.34833265026568E-06</v>
+        <v>1.9775526812391179E-5</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -589,83 +613,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C6">
-        <v>105.5</v>
+        <v>103.5</v>
       </c>
       <c r="D6">
-        <v>0.375</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E6">
-        <v>55.55634891986847</v>
+        <v>78.041630148887634</v>
       </c>
       <c r="F6">
-        <v>0.3099775092379652</v>
+        <v>0.69895912178941111</v>
       </c>
       <c r="G6">
-        <v>0.06136639816126187</v>
+        <v>0.39525993339381538</v>
       </c>
       <c r="H6">
-        <v>0.006333390205981455</v>
+        <v>4.7729590633288918E-3</v>
       </c>
       <c r="I6">
-        <v>0.001748420081022363</v>
+        <v>4.773948842590206E-3</v>
       </c>
       <c r="J6">
-        <v>5.488418100595295E-06</v>
+        <v>2.2784203436541089E-5</v>
       </c>
       <c r="K6">
         <v>14</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C7">
-        <v>115.5</v>
+        <v>98.5</v>
       </c>
       <c r="D7">
-        <v>0.4166666666666667</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>56.38477599620819</v>
+        <v>79.698484301567078</v>
       </c>
       <c r="F7">
-        <v>0.2887070333707391</v>
+        <v>0.70107027842562775</v>
       </c>
       <c r="G7">
-        <v>0.04855328529282114</v>
+        <v>0.3726266020376951</v>
       </c>
       <c r="H7">
-        <v>0.005632963069488801</v>
+        <v>5.0680461001500338E-3</v>
       </c>
       <c r="I7">
-        <v>0.001262217927895743</v>
+        <v>3.1719138391719192E-3</v>
       </c>
       <c r="J7">
-        <v>3.062206936765337E-06</v>
+        <v>1.251702602299509E-5</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <v>31</v>
@@ -677,42 +701,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8">
-        <v>117.5</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666667</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="E8">
-        <v>56.38477599620819</v>
+        <v>79.112697839736938</v>
       </c>
       <c r="F8">
-        <v>0.2852344556494122</v>
+        <v>0.74033311111111111</v>
       </c>
       <c r="G8">
-        <v>0.04653810624515407</v>
+        <v>0.44904491554449422</v>
       </c>
       <c r="H8">
-        <v>0.005368458788839212</v>
+        <v>8.0759920288951403E-3</v>
       </c>
       <c r="I8">
-        <v>0.001123019218898401</v>
+        <v>7.3614997397213923E-3</v>
       </c>
       <c r="J8">
-        <v>2.489933703518063E-06</v>
+        <v>5.6737976022050679E-5</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -721,174 +745,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C9">
-        <v>106.5</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
       <c r="E9">
-        <v>55.55634891986847</v>
+        <v>74.284270763397217</v>
       </c>
       <c r="F9">
-        <v>0.3085871648000211</v>
+        <v>0.71175378456194127</v>
       </c>
       <c r="G9">
-        <v>0.06007221842765539</v>
+        <v>0.4117511842604204</v>
       </c>
       <c r="H9">
-        <v>0.006556552658435298</v>
+        <v>4.6412181141528112E-3</v>
       </c>
       <c r="I9">
-        <v>0.001830128366170366</v>
+        <v>2.9122805792581989E-3</v>
       </c>
       <c r="J9">
-        <v>6.046926291205281E-06</v>
+        <v>1.045637126052017E-5</v>
       </c>
       <c r="K9">
         <v>14</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9">
         <v>12</v>
       </c>
       <c r="N9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="C10">
-        <v>107.5</v>
+        <v>126.5</v>
       </c>
       <c r="D10">
-        <v>0.375</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="E10">
-        <v>56.72792184352875</v>
+        <v>83.355338454246521</v>
       </c>
       <c r="F10">
-        <v>0.3058087911197203</v>
+        <v>0.67797351427846486</v>
       </c>
       <c r="G10">
-        <v>0.05734443081559278</v>
+        <v>0.36570795231144537</v>
       </c>
       <c r="H10">
-        <v>0.00782138373540507</v>
+        <v>4.6754092869706913E-3</v>
       </c>
       <c r="I10">
-        <v>0.002298595634702446</v>
+        <v>3.0638511927895632E-3</v>
       </c>
       <c r="J10">
-        <v>9.348332650267198E-06</v>
+        <v>1.148644968134285E-5</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C11">
-        <v>116.5</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>0.3461538461538461</v>
+        <v>0.32</v>
       </c>
       <c r="E11">
-        <v>83.69848430156708</v>
+        <v>75.112697839736938</v>
       </c>
       <c r="F11">
-        <v>0.5110343025180777</v>
+        <v>0.62309029643892455</v>
       </c>
       <c r="G11">
-        <v>0.1892710696321599</v>
+        <v>0.30150571375562241</v>
       </c>
       <c r="H11">
-        <v>0.0006624775481174162</v>
+        <v>4.2980932969576783E-3</v>
       </c>
       <c r="I11">
-        <v>0.0001054342378193401</v>
+        <v>6.78600343500687E-4</v>
       </c>
       <c r="J11">
-        <v>2.78512681277102E-08</v>
+        <v>-1.0982440245999731E-6</v>
       </c>
       <c r="K11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C12">
-        <v>117</v>
+        <v>86.5</v>
       </c>
       <c r="D12">
-        <v>0.3461538461538461</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E12">
-        <v>85.11269783973694</v>
+        <v>78.526911377906799</v>
       </c>
       <c r="F12">
-        <v>0.5176088453050485</v>
+        <v>0.72973968170828163</v>
       </c>
       <c r="G12">
-        <v>0.1929790490018078</v>
+        <v>0.42618376707312428</v>
       </c>
       <c r="H12">
-        <v>3.717816008122872E-05</v>
+        <v>1.2295855143673869E-2</v>
       </c>
       <c r="I12">
-        <v>9.958741159531341E-05</v>
+        <v>1.936821045129575E-3</v>
       </c>
       <c r="J12">
-        <v>-2.171107719985114E-09</v>
+        <v>-3.395255948748131E-6</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -897,42 +921,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C13">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>0.36</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E13">
-        <v>82.28427076339722</v>
+        <v>75.112697839736938</v>
       </c>
       <c r="F13">
-        <v>0.518016397066154</v>
+        <v>0.76627525699283794</v>
       </c>
       <c r="G13">
-        <v>0.1911170727241027</v>
+        <v>0.48054102542542582</v>
       </c>
       <c r="H13">
-        <v>0.0001981547148266551</v>
+        <v>1.262851259213715E-2</v>
       </c>
       <c r="I13">
-        <v>0.0003799829248247072</v>
+        <v>2.0277246457117851E-3</v>
       </c>
       <c r="J13">
-        <v>1.042673454925254E-07</v>
+        <v>-3.0259171091247398E-6</v>
       </c>
       <c r="K13">
         <v>13</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -941,83 +965,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>0.375</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E14">
-        <v>79.11269783973694</v>
+        <v>75.112697839736938</v>
       </c>
       <c r="F14">
-        <v>0.496795327018241</v>
+        <v>0.82562820515920721</v>
       </c>
       <c r="G14">
-        <v>0.1692791636642905</v>
+        <v>0.56482622387371006</v>
       </c>
       <c r="H14">
-        <v>0.0004375604367860354</v>
+        <v>1.38449715388791E-2</v>
       </c>
       <c r="I14">
-        <v>5.210242257963435E-05</v>
+        <v>1.853009981622833E-3</v>
       </c>
       <c r="J14">
-        <v>6.904416571091592E-09</v>
+        <v>-8.3263598832301989E-6</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C15">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>0.3461538461538461</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E15">
-        <v>83.11269783973694</v>
+        <v>81.112697839736938</v>
       </c>
       <c r="F15">
-        <v>0.5299040391587441</v>
+        <v>0.78077240403710202</v>
       </c>
       <c r="G15">
-        <v>0.2061319292991075</v>
+        <v>0.490853176508667</v>
       </c>
       <c r="H15">
-        <v>0.0005465413357221704</v>
+        <v>1.7680463287890861E-2</v>
       </c>
       <c r="I15">
-        <v>3.220542050970802E-05</v>
+        <v>4.6540956240996197E-3</v>
       </c>
       <c r="J15">
-        <v>4.26890930262549E-09</v>
+        <v>2.4478719169447889E-5</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15">
         <v>30</v>
@@ -1029,42 +1053,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>208</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D16">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E16">
-        <v>68.62741661071777</v>
+        <v>81.112697839736938</v>
       </c>
       <c r="F16">
-        <v>0.3689049145377362</v>
+        <v>0.78077240403710202</v>
       </c>
       <c r="G16">
-        <v>0.09824876513740356</v>
+        <v>0.490853176508667</v>
       </c>
       <c r="H16">
-        <v>0.004086990650018209</v>
+        <v>1.7680463287890861E-2</v>
       </c>
       <c r="I16">
-        <v>0.004117516726789258</v>
+        <v>4.6540956240996197E-3</v>
       </c>
       <c r="J16">
-        <v>1.688650229467087E-05</v>
+        <v>2.4478719169447889E-5</v>
       </c>
       <c r="K16">
         <v>14</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1073,127 +1097,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C17">
-        <v>107</v>
+        <v>83.5</v>
       </c>
       <c r="D17">
-        <v>0.3636363636363636</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E17">
-        <v>60.62741661071777</v>
+        <v>80.526911377906799</v>
       </c>
       <c r="F17">
-        <v>0.3345207973198606</v>
+        <v>0.77178064061438079</v>
       </c>
       <c r="G17">
-        <v>0.07295961452486564</v>
+        <v>0.47265845462627432</v>
       </c>
       <c r="H17">
-        <v>0.003450504052652625</v>
+        <v>1.622950132400491E-2</v>
       </c>
       <c r="I17">
-        <v>0.0032397889050621</v>
+        <v>4.4506246248631103E-3</v>
       </c>
       <c r="J17">
-        <v>1.082672289836736E-05</v>
+        <v>2.2992755504131758E-5</v>
       </c>
       <c r="K17">
         <v>13</v>
       </c>
       <c r="L17">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>234</v>
+      </c>
+      <c r="C18">
+        <v>97.5</v>
+      </c>
+      <c r="D18">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E18">
+        <v>80.183765530586243</v>
+      </c>
+      <c r="F18">
+        <v>0.68014629751382061</v>
+      </c>
+      <c r="G18">
+        <v>0.362199381216745</v>
+      </c>
+      <c r="H18">
+        <v>1.0088572027727239E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.9465022935618861E-3</v>
+      </c>
+      <c r="J18">
+        <v>5.1242427593272518E-7</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18">
         <v>30</v>
       </c>
-      <c r="M17">
-        <v>24</v>
-      </c>
-      <c r="N17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>192</v>
-      </c>
-      <c r="C18">
-        <v>115</v>
-      </c>
-      <c r="D18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E18">
-        <v>64.28427076339722</v>
-      </c>
-      <c r="F18">
-        <v>0.3318170278439852</v>
-      </c>
-      <c r="G18">
-        <v>0.07293010705501643</v>
-      </c>
-      <c r="H18">
-        <v>0.003470294548983616</v>
-      </c>
-      <c r="I18">
-        <v>0.003019198273597766</v>
-      </c>
-      <c r="J18">
-        <v>9.767621498675398E-06</v>
-      </c>
-      <c r="K18">
-        <v>13</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
       <c r="M18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C19">
-        <v>128.5</v>
+        <v>107.5</v>
       </c>
       <c r="D19">
-        <v>0.3076923076923077</v>
+        <v>0.375</v>
       </c>
       <c r="E19">
-        <v>68.04163014888763</v>
+        <v>56.727921843528748</v>
       </c>
       <c r="F19">
-        <v>0.3677154569904718</v>
+        <v>0.30580879111971931</v>
       </c>
       <c r="G19">
-        <v>0.09850911729801963</v>
+        <v>5.7344430815592068E-2</v>
       </c>
       <c r="H19">
-        <v>0.003782131454744967</v>
+        <v>7.8213837354058988E-3</v>
       </c>
       <c r="I19">
-        <v>0.003166770158804109</v>
+        <v>2.298595634702162E-3</v>
       </c>
       <c r="J19">
-        <v>1.095562169600949E-05</v>
+        <v>9.3483326502656799E-6</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19">
         <v>32</v>
@@ -1205,174 +1229,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C20">
-        <v>121.5</v>
+        <v>105.5</v>
       </c>
       <c r="D20">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="E20">
-        <v>62.38477599620819</v>
+        <v>55.556348919868469</v>
       </c>
       <c r="F20">
-        <v>0.3543786606495149</v>
+        <v>0.30997750923796519</v>
       </c>
       <c r="G20">
-        <v>0.08981124115642229</v>
+        <v>6.1366398161261868E-2</v>
       </c>
       <c r="H20">
-        <v>0.003928293724671472</v>
+        <v>6.3333902059814554E-3</v>
       </c>
       <c r="I20">
-        <v>0.003533441752905772</v>
+        <v>1.748420081022363E-3</v>
       </c>
       <c r="J20">
-        <v>1.315310800103617E-05</v>
+        <v>5.4884181005952946E-6</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C21">
-        <v>129.5</v>
+        <v>115.5</v>
       </c>
       <c r="D21">
-        <v>0.3076923076923077</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E21">
-        <v>69.21320307254791</v>
+        <v>56.384775996208191</v>
       </c>
       <c r="F21">
-        <v>0.37874347097525</v>
+        <v>0.28870703337073911</v>
       </c>
       <c r="G21">
-        <v>0.1056991826882616</v>
+        <v>4.8553285292821137E-2</v>
       </c>
       <c r="H21">
-        <v>0.004773480847206718</v>
+        <v>5.6329630694888014E-3</v>
       </c>
       <c r="I21">
-        <v>0.004531383154841602</v>
+        <v>1.262217927895743E-3</v>
       </c>
       <c r="J21">
-        <v>2.107100099635481E-05</v>
+        <v>3.0622069367653369E-6</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C22">
-        <v>129.5</v>
+        <v>89</v>
       </c>
       <c r="D22">
-        <v>0.3076923076923077</v>
+        <v>0.375</v>
       </c>
       <c r="E22">
-        <v>69.21320307254791</v>
+        <v>56.142135381698608</v>
       </c>
       <c r="F22">
-        <v>0.37874347097525</v>
+        <v>0.31308614673521712</v>
       </c>
       <c r="G22">
-        <v>0.1056991826882616</v>
+        <v>5.6466001044053381E-2</v>
       </c>
       <c r="H22">
-        <v>0.004773480847206718</v>
+        <v>1.1282815475422991E-2</v>
       </c>
       <c r="I22">
-        <v>0.004531383154841602</v>
+        <v>3.4425283554868858E-3</v>
       </c>
       <c r="J22">
-        <v>2.107100099635481E-05</v>
+        <v>2.0565377289217579E-5</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>137</v>
+        <v>117.5</v>
       </c>
       <c r="D23">
-        <v>0.2857142857142857</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E23">
-        <v>71.4558436870575</v>
+        <v>56.384775996208191</v>
       </c>
       <c r="F23">
-        <v>0.3862262936628647</v>
+        <v>0.28523445564941219</v>
       </c>
       <c r="G23">
-        <v>0.1121476934518096</v>
+        <v>4.6538106245154073E-2</v>
       </c>
       <c r="H23">
-        <v>0.004624875587481292</v>
+        <v>5.3684587888392123E-3</v>
       </c>
       <c r="I23">
-        <v>0.004494180928111995</v>
+        <v>1.123019218898401E-3</v>
       </c>
       <c r="J23">
-        <v>2.048510451830392E-05</v>
+        <v>2.4899337035180632E-6</v>
       </c>
       <c r="K23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1381,139 +1405,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C24">
-        <v>131.5</v>
+        <v>106.5</v>
       </c>
       <c r="D24">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
       <c r="E24">
-        <v>68.87005722522736</v>
+        <v>55.556348919868469</v>
       </c>
       <c r="F24">
-        <v>0.3702521544572269</v>
+        <v>0.30858716480002107</v>
       </c>
       <c r="G24">
-        <v>0.09943830027398548</v>
+        <v>6.0072218427655387E-2</v>
       </c>
       <c r="H24">
-        <v>0.004710730156804439</v>
+        <v>6.5565526584352978E-3</v>
       </c>
       <c r="I24">
-        <v>0.004127636680434368</v>
+        <v>1.830128366170366E-3</v>
       </c>
       <c r="J24">
-        <v>1.819428254724065E-05</v>
+        <v>6.0469262912052812E-6</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C25">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D25">
-        <v>0.05</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="E25">
-        <v>122</v>
+        <v>52.97056245803833</v>
       </c>
       <c r="F25">
-        <v>2.461158192090394</v>
+        <v>0.30706050444671162</v>
       </c>
       <c r="G25">
-        <v>6.02952186871588</v>
+        <v>5.9755384216564338E-2</v>
       </c>
       <c r="H25">
-        <v>1.518744579343068E-28</v>
+        <v>6.0932350813848214E-3</v>
       </c>
       <c r="I25">
-        <v>1.517269200020459E-28</v>
+        <v>1.5669325331681709E-3</v>
       </c>
       <c r="J25">
-        <v>2.303224807829751E-56</v>
+        <v>4.4278323446659642E-6</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="N25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C26">
-        <v>113.5</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>0.3636363636363636</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="E26">
-        <v>60.38477599620819</v>
+        <v>52.97056245803833</v>
       </c>
       <c r="F26">
-        <v>0.3221054723168536</v>
+        <v>0.30706050444671162</v>
       </c>
       <c r="G26">
-        <v>0.06657803538380554</v>
+        <v>5.9755384216564338E-2</v>
       </c>
       <c r="H26">
-        <v>0.002622224776041911</v>
+        <v>6.0932350813848214E-3</v>
       </c>
       <c r="I26">
-        <v>0.002266010901302923</v>
+        <v>1.5669325331681709E-3</v>
       </c>
       <c r="J26">
-        <v>5.519881141584374E-06</v>
+        <v>4.4278323446659642E-6</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L26">
         <v>28</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1521,342 +1545,342 @@
         <v>207</v>
       </c>
       <c r="C27">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>0.391304347826087</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="E27">
-        <v>62.62741661071777</v>
+        <v>52.97056245803833</v>
       </c>
       <c r="F27">
-        <v>0.3142688380406027</v>
+        <v>0.30706050444671162</v>
       </c>
       <c r="G27">
-        <v>0.06252335919417779</v>
+        <v>5.9755384216564338E-2</v>
       </c>
       <c r="H27">
-        <v>0.002825022754840792</v>
+        <v>6.0932350813848214E-3</v>
       </c>
       <c r="I27">
-        <v>0.002458733222145645</v>
+        <v>1.5669325331681709E-3</v>
       </c>
       <c r="J27">
-        <v>6.472582809982742E-06</v>
+        <v>4.4278323446659642E-6</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <v>28</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C28">
-        <v>119</v>
+        <v>86.5</v>
       </c>
       <c r="D28">
-        <v>0.32</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E28">
-        <v>66.62741661071777</v>
+        <v>54.727921843528748</v>
       </c>
       <c r="F28">
-        <v>0.3565428313358633</v>
+        <v>0.32811676995436012</v>
       </c>
       <c r="G28">
-        <v>0.09004962859041357</v>
+        <v>6.9857294326719194E-2</v>
       </c>
       <c r="H28">
-        <v>0.004235383421567075</v>
+        <v>9.1327526928303444E-3</v>
       </c>
       <c r="I28">
-        <v>0.003905894550618228</v>
+        <v>2.5115188479117412E-3</v>
       </c>
       <c r="J28">
-        <v>1.587959999657398E-05</v>
+        <v>1.1154943473870859E-5</v>
       </c>
       <c r="K28">
         <v>13</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="C29">
-        <v>119</v>
+        <v>87.5</v>
       </c>
       <c r="D29">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
-        <v>66.62741661071777</v>
+        <v>175.41421353816989</v>
       </c>
       <c r="F29">
-        <v>0.3565428313358633</v>
+        <v>5.1065288189180489</v>
       </c>
       <c r="G29">
-        <v>0.09004962859041357</v>
+        <v>17.146300111391241</v>
       </c>
       <c r="H29">
-        <v>0.004235383421567075</v>
+        <v>60.542288041317647</v>
       </c>
       <c r="I29">
-        <v>0.003905894550618228</v>
+        <v>12.76974595100965</v>
       </c>
       <c r="J29">
-        <v>1.587959999657398E-05</v>
+        <v>182.06481001896711</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="N29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C30">
-        <v>127.5</v>
+        <v>89.5</v>
       </c>
       <c r="D30">
-        <v>0.3076923076923077</v>
+        <v>0.375</v>
       </c>
       <c r="E30">
-        <v>66.87005722522736</v>
+        <v>55.556348919868469</v>
       </c>
       <c r="F30">
-        <v>0.3658072854499571</v>
+        <v>0.32117729512879117</v>
       </c>
       <c r="G30">
-        <v>0.09763860672660066</v>
+        <v>6.4127944111358123E-2</v>
       </c>
       <c r="H30">
-        <v>0.00371206211686469</v>
+        <v>9.7559179603518703E-3</v>
       </c>
       <c r="I30">
-        <v>0.003587174900148418</v>
+        <v>2.8508514087634269E-3</v>
       </c>
       <c r="J30">
-        <v>1.308406397010083E-05</v>
+        <v>1.413492499060452E-5</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C31">
-        <v>118</v>
+        <v>107.5</v>
       </c>
       <c r="D31">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="E31">
-        <v>62.62741661071777</v>
+        <v>56.727921843528748</v>
       </c>
       <c r="F31">
-        <v>0.3468183956382004</v>
+        <v>0.30580879111972031</v>
       </c>
       <c r="G31">
-        <v>0.08390066001492476</v>
+        <v>5.7344430815592783E-2</v>
       </c>
       <c r="H31">
-        <v>0.003813182552888693</v>
+        <v>7.8213837354050696E-3</v>
       </c>
       <c r="I31">
-        <v>0.003423532382635597</v>
+        <v>2.298595634702446E-3</v>
       </c>
       <c r="J31">
-        <v>1.235835641085078E-05</v>
+        <v>9.3483326502671978E-6</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>192</v>
+        <v>1800</v>
       </c>
       <c r="C32">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
-        <v>62.62741661071777</v>
+        <v>176.82842707633969</v>
       </c>
       <c r="F32">
-        <v>0.3468183956382004</v>
+        <v>1.231462185628629</v>
       </c>
       <c r="G32">
-        <v>0.08390066001492476</v>
+        <v>1.4867369739368941</v>
       </c>
       <c r="H32">
-        <v>0.003813182552888693</v>
+        <v>3.7097119748686789E-4</v>
       </c>
       <c r="I32">
-        <v>0.003423532382635597</v>
+        <v>4.1969215021865077E-5</v>
       </c>
       <c r="J32">
-        <v>1.235835641085078E-05</v>
+        <v>-5.2368045530331023E-9</v>
       </c>
       <c r="K32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="N32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C33">
-        <v>167</v>
+        <v>89.5</v>
       </c>
       <c r="D33">
-        <v>0.3461538461538461</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E33">
-        <v>61.79898953437805</v>
+        <v>77.698484301567078</v>
       </c>
       <c r="F33">
-        <v>0.3110396093800897</v>
+        <v>0.60287262686458498</v>
       </c>
       <c r="G33">
-        <v>0.0686523786597729</v>
+        <v>0.27652961507266799</v>
       </c>
       <c r="H33">
-        <v>0.0002871300793768541</v>
+        <v>1.143599045092234E-4</v>
       </c>
       <c r="I33">
-        <v>0.0001466576307836378</v>
+        <v>6.3646890597540728E-4</v>
       </c>
       <c r="J33">
-        <v>3.008655912907889E-08</v>
+        <v>1.5933655705870939E-7</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C34">
-        <v>154</v>
+        <v>116.5</v>
       </c>
       <c r="D34">
-        <v>0.36</v>
+        <v>0.34615384615384609</v>
       </c>
       <c r="E34">
-        <v>60.62741661071777</v>
+        <v>83.698484301567078</v>
       </c>
       <c r="F34">
-        <v>0.2988508254362537</v>
+        <v>0.51103430251807769</v>
       </c>
       <c r="G34">
-        <v>0.06103343332391163</v>
+        <v>0.18927106963215989</v>
       </c>
       <c r="H34">
-        <v>0.0002577950441998681</v>
+        <v>6.6247754811741622E-4</v>
       </c>
       <c r="I34">
-        <v>0.0001291309041139063</v>
+        <v>1.054342378193401E-4</v>
       </c>
       <c r="J34">
-        <v>2.356019695798684E-08</v>
+        <v>2.78512681277102E-8</v>
       </c>
       <c r="K34">
         <v>13</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -1865,42 +1889,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="C35">
-        <v>133.5</v>
+        <v>117</v>
       </c>
       <c r="D35">
-        <v>0.3333333333333333</v>
+        <v>0.34615384615384609</v>
       </c>
       <c r="E35">
-        <v>56.38477599620819</v>
+        <v>85.112697839736938</v>
       </c>
       <c r="F35">
-        <v>0.3165642160828877</v>
+        <v>0.51760884530504847</v>
       </c>
       <c r="G35">
-        <v>0.07237634610504509</v>
+        <v>0.19297904900180779</v>
       </c>
       <c r="H35">
-        <v>0.0002593938390613711</v>
+        <v>3.7178160081228718E-5</v>
       </c>
       <c r="I35">
-        <v>0.0001472004630768582</v>
+        <v>9.9587411595313408E-5</v>
       </c>
       <c r="J35">
-        <v>2.876332984397668E-08</v>
+        <v>-2.1711077199851142E-9</v>
       </c>
       <c r="K35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -1909,42 +1933,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C36">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>0.3076923076923077</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="E36">
-        <v>59.79898953437805</v>
+        <v>84.627416610717773</v>
       </c>
       <c r="F36">
-        <v>0.3373792192290689</v>
+        <v>0.66485742981646112</v>
       </c>
       <c r="G36">
-        <v>0.08595889847746339</v>
+        <v>0.3427165264707851</v>
       </c>
       <c r="H36">
-        <v>0.0002360888577559412</v>
+        <v>2.6640928619905469E-4</v>
       </c>
       <c r="I36">
-        <v>0.000131216955805522</v>
+        <v>6.0491433350140434E-6</v>
       </c>
       <c r="J36">
-        <v>2.308452598842826E-08</v>
+        <v>1.6025329406706291E-10</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -1953,42 +1977,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C37">
-        <v>164.5</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>0.3461538461538461</v>
+        <v>0.36</v>
       </c>
       <c r="E37">
-        <v>62.38477599620819</v>
+        <v>82.284270763397217</v>
       </c>
       <c r="F37">
-        <v>0.3191129332299353</v>
+        <v>0.51801639706615399</v>
       </c>
       <c r="G37">
-        <v>0.07340842660338329</v>
+        <v>0.19111707272410269</v>
       </c>
       <c r="H37">
-        <v>0.0002895596466868909</v>
+        <v>1.9815471482665509E-4</v>
       </c>
       <c r="I37">
-        <v>0.0001552696329059293</v>
+        <v>3.7998292482470722E-4</v>
       </c>
       <c r="J37">
-        <v>3.290214070434371E-08</v>
+        <v>1.042673454925254E-7</v>
       </c>
       <c r="K37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -1997,42 +2021,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C38">
-        <v>129</v>
+        <v>89.5</v>
       </c>
       <c r="D38">
-        <v>0.3478260869565217</v>
+        <v>0.32</v>
       </c>
       <c r="E38">
-        <v>54.97056245803833</v>
+        <v>78.870057225227356</v>
       </c>
       <c r="F38">
-        <v>0.3065050539588076</v>
+        <v>0.60175604073079025</v>
       </c>
       <c r="G38">
-        <v>0.06587894945932624</v>
+        <v>0.27822071829800399</v>
       </c>
       <c r="H38">
-        <v>0.0003417378622613045</v>
+        <v>1.2315189015171049E-3</v>
       </c>
       <c r="I38">
-        <v>0.0001629294309095737</v>
+        <v>1.8795738125442589E-3</v>
       </c>
       <c r="J38">
-        <v>3.841586025885625E-08</v>
+        <v>2.8590642472890439E-6</v>
       </c>
       <c r="K38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2041,42 +2065,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="C39">
-        <v>177.5</v>
+        <v>89.5</v>
       </c>
       <c r="D39">
-        <v>0.3333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="E39">
-        <v>65.21320307254791</v>
+        <v>78.870057225227356</v>
       </c>
       <c r="F39">
-        <v>0.3156907226160189</v>
+        <v>0.60175604073079025</v>
       </c>
       <c r="G39">
-        <v>0.07163875056152713</v>
+        <v>0.27822071829800399</v>
       </c>
       <c r="H39">
-        <v>0.0001749095220211529</v>
+        <v>1.2315189015171049E-3</v>
       </c>
       <c r="I39">
-        <v>9.630916585905081E-05</v>
+        <v>1.8795738125442589E-3</v>
       </c>
       <c r="J39">
-        <v>1.249994654477162E-08</v>
+        <v>2.8590642472890439E-6</v>
       </c>
       <c r="K39">
         <v>14</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2085,86 +2109,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C40">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>0.3076923076923077</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E40">
-        <v>60.97056245803833</v>
+        <v>77.455843687057495</v>
       </c>
       <c r="F40">
-        <v>0.3281127324881242</v>
+        <v>0.57027822815219142</v>
       </c>
       <c r="G40">
-        <v>0.08010010828382724</v>
+        <v>0.24036254922243261</v>
       </c>
       <c r="H40">
-        <v>2.087899086353664E-05</v>
+        <v>3.0321795778037632E-4</v>
       </c>
       <c r="I40">
-        <v>1.50881039055372E-05</v>
+        <v>4.2053636316564771E-6</v>
       </c>
       <c r="J40">
-        <v>2.677976437113829E-10</v>
+        <v>-1.495394171654444E-10</v>
       </c>
       <c r="K40">
         <v>14</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C41">
-        <v>135.5</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>0.32</v>
+        <v>0.375</v>
       </c>
       <c r="E41">
-        <v>58.38477599620819</v>
+        <v>79.112697839736938</v>
       </c>
       <c r="F41">
-        <v>0.3352776385295758</v>
+        <v>0.49679532701824097</v>
       </c>
       <c r="G41">
-        <v>0.08396282366172921</v>
+        <v>0.16927916366429049</v>
       </c>
       <c r="H41">
-        <v>0.000415827828705252</v>
+        <v>4.3756043678603538E-4</v>
       </c>
       <c r="I41">
-        <v>0.00022967353393852</v>
+        <v>5.2102422579634347E-5</v>
       </c>
       <c r="J41">
-        <v>7.096254199279989E-08</v>
+        <v>6.9044165710915916E-9</v>
       </c>
       <c r="K41">
         <v>13</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2173,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2181,43 +2205,43 @@
         <v>192</v>
       </c>
       <c r="C42">
-        <v>139</v>
+        <v>89.5</v>
       </c>
       <c r="D42">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E42">
-        <v>56.97056245803833</v>
+        <v>77.698484301567078</v>
       </c>
       <c r="F42">
-        <v>0.3176214372428345</v>
+        <v>0.60287262686458498</v>
       </c>
       <c r="G42">
-        <v>0.07279799618515718</v>
+        <v>0.27652961507266799</v>
       </c>
       <c r="H42">
-        <v>0.0001323632467287743</v>
+        <v>1.143599045092234E-4</v>
       </c>
       <c r="I42">
-        <v>8.075115391526645E-05</v>
+        <v>6.3646890597540728E-4</v>
       </c>
       <c r="J42">
-        <v>8.347623368633694E-09</v>
+        <v>1.5933655705870939E-7</v>
       </c>
       <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>31</v>
+      </c>
+      <c r="M42">
         <v>12</v>
       </c>
-      <c r="L42">
-        <v>30</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2225,78 +2249,78 @@
         <v>234</v>
       </c>
       <c r="C43">
-        <v>165.5</v>
+        <v>115</v>
       </c>
       <c r="D43">
-        <v>0.3461538461538461</v>
+        <v>0.34615384615384609</v>
       </c>
       <c r="E43">
-        <v>62.38477599620819</v>
+        <v>83.112697839736938</v>
       </c>
       <c r="F43">
-        <v>0.315571204569819</v>
+        <v>0.52990403915874407</v>
       </c>
       <c r="G43">
-        <v>0.07151226825972869</v>
+        <v>0.20613192929910751</v>
       </c>
       <c r="H43">
-        <v>0.0002796110199412713</v>
+        <v>5.4654133572217044E-4</v>
       </c>
       <c r="I43">
-        <v>0.0001450534963827418</v>
+        <v>3.2205420509708022E-5</v>
       </c>
       <c r="J43">
-        <v>2.913235015418691E-08</v>
+        <v>4.2689093026254904E-9</v>
       </c>
       <c r="K43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C44">
-        <v>164.5</v>
+        <v>89.5</v>
       </c>
       <c r="D44">
-        <v>0.3461538461538461</v>
+        <v>0.32</v>
       </c>
       <c r="E44">
-        <v>62.38477599620819</v>
+        <v>78.870057225227356</v>
       </c>
       <c r="F44">
-        <v>0.3191129332299356</v>
+        <v>0.60175604073079025</v>
       </c>
       <c r="G44">
-        <v>0.07340842660338313</v>
+        <v>0.27822071829800399</v>
       </c>
       <c r="H44">
-        <v>0.0002895596466868138</v>
+        <v>1.2315189015171049E-3</v>
       </c>
       <c r="I44">
-        <v>0.0001552696329059447</v>
+        <v>1.8795738125442589E-3</v>
       </c>
       <c r="J44">
-        <v>3.290214070434409E-08</v>
+        <v>2.8590642472890439E-6</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2305,42 +2329,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C45">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D45">
-        <v>0.3461538461538461</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E45">
-        <v>62.97056245803833</v>
+        <v>68.627416610717773</v>
       </c>
       <c r="F45">
-        <v>0.3180792881994433</v>
+        <v>0.36890491453773622</v>
       </c>
       <c r="G45">
-        <v>0.07324886042981171</v>
+        <v>9.8248765137403563E-2</v>
       </c>
       <c r="H45">
-        <v>0.0003230144814653044</v>
+        <v>4.0869906500182089E-3</v>
       </c>
       <c r="I45">
-        <v>0.0001858979246754793</v>
+        <v>4.117516726789258E-3</v>
       </c>
       <c r="J45">
-        <v>4.555244069425377E-08</v>
+        <v>1.6886502294670871E-5</v>
       </c>
       <c r="K45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2349,306 +2373,306 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>0.3461538461538461</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>61.79898953437805</v>
+        <v>62</v>
       </c>
       <c r="F46">
-        <v>0.3212601184536218</v>
+        <v>1.214080459770114</v>
       </c>
       <c r="G46">
-        <v>0.07484832249088663</v>
+        <v>1.446213585017835</v>
       </c>
       <c r="H46">
-        <v>0.0003261979966608768</v>
+        <v>5.2071610491150552E-30</v>
       </c>
       <c r="I46">
-        <v>0.0001722101324813482</v>
+        <v>5.1671477732123998E-30</v>
       </c>
       <c r="J46">
-        <v>4.081515738306786E-08</v>
+        <v>2.6802574173089351E-59</v>
       </c>
       <c r="K46">
         <v>14</v>
       </c>
       <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
         <v>30</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>192</v>
+      </c>
+      <c r="C47">
+        <v>115</v>
+      </c>
+      <c r="D47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E47">
+        <v>64.284270763397217</v>
+      </c>
+      <c r="F47">
+        <v>0.3318170278439852</v>
+      </c>
+      <c r="G47">
+        <v>7.293010705501643E-2</v>
+      </c>
+      <c r="H47">
+        <v>3.470294548983616E-3</v>
+      </c>
+      <c r="I47">
+        <v>3.0191982735977658E-3</v>
+      </c>
+      <c r="J47">
+        <v>9.767621498675398E-6</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>29</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47">
         <v>4</v>
       </c>
-      <c r="B47">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>208</v>
       </c>
-      <c r="C47">
-        <v>157</v>
-      </c>
-      <c r="D47">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E47">
-        <v>60.97056245803833</v>
-      </c>
-      <c r="F47">
-        <v>0.3281127324881236</v>
-      </c>
-      <c r="G47">
-        <v>0.0801001082838269</v>
-      </c>
-      <c r="H47">
-        <v>2.087899086352975E-05</v>
-      </c>
-      <c r="I47">
-        <v>1.508810390550792E-05</v>
-      </c>
-      <c r="J47">
-        <v>2.677976437105593E-10</v>
-      </c>
-      <c r="K47">
-        <v>13</v>
-      </c>
-      <c r="L47">
-        <v>28</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>216</v>
-      </c>
       <c r="C48">
-        <v>155.5</v>
+        <v>128.5</v>
       </c>
       <c r="D48">
-        <v>0.2962962962962963</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E48">
-        <v>62.38477599620819</v>
+        <v>68.041630148887634</v>
       </c>
       <c r="F48">
-        <v>0.3419221451826995</v>
+        <v>0.36771545699047181</v>
       </c>
       <c r="G48">
-        <v>0.0892730933783652</v>
+        <v>9.850911729801963E-2</v>
       </c>
       <c r="H48">
-        <v>7.724200772169713E-05</v>
+        <v>3.7821314547449672E-3</v>
       </c>
       <c r="I48">
-        <v>4.466268367557916E-05</v>
+        <v>3.1667701588041089E-3</v>
       </c>
       <c r="J48">
-        <v>2.623270300901042E-09</v>
+        <v>1.095562169600949E-5</v>
       </c>
       <c r="K48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>192</v>
       </c>
       <c r="C49">
-        <v>128.5</v>
+        <v>121.5</v>
       </c>
       <c r="D49">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E49">
-        <v>56.38477599620819</v>
+        <v>62.384775996208191</v>
       </c>
       <c r="F49">
-        <v>0.3261659089885425</v>
+        <v>0.3543786606495149</v>
       </c>
       <c r="G49">
-        <v>0.07833657273350096</v>
+        <v>8.9811241156422292E-2</v>
       </c>
       <c r="H49">
-        <v>0.0003403628703505252</v>
+        <v>3.9282937246714724E-3</v>
       </c>
       <c r="I49">
-        <v>0.0001898795333883993</v>
+        <v>3.533441752905772E-3</v>
       </c>
       <c r="J49">
-        <v>4.827009824010281E-08</v>
+        <v>1.315310800103617E-5</v>
       </c>
       <c r="K49">
         <v>13</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>208</v>
       </c>
       <c r="C50">
-        <v>141</v>
+        <v>129.5</v>
       </c>
       <c r="D50">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E50">
-        <v>59.79898953437805</v>
+        <v>69.213203072547913</v>
       </c>
       <c r="F50">
-        <v>0.3474579381678748</v>
+        <v>0.37874347097525002</v>
       </c>
       <c r="G50">
-        <v>0.09267753339793815</v>
+        <v>0.1056991826882616</v>
       </c>
       <c r="H50">
-        <v>0.0004203983654481896</v>
+        <v>4.7734808472067181E-3</v>
       </c>
       <c r="I50">
-        <v>0.0002484448661478686</v>
+        <v>4.5313831548416022E-3</v>
       </c>
       <c r="J50">
-        <v>8.029039716111048E-08</v>
+        <v>2.1071000996354809E-5</v>
       </c>
       <c r="K50">
         <v>13</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C51">
-        <v>148.5</v>
+        <v>129.5</v>
       </c>
       <c r="D51">
-        <v>0.3461538461538461</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E51">
-        <v>71.21320307254791</v>
+        <v>69.213203072547913</v>
       </c>
       <c r="F51">
-        <v>0.3394414119270884</v>
+        <v>0.37874347097525002</v>
       </c>
       <c r="G51">
-        <v>0.07875568249843817</v>
+        <v>0.1056991826882616</v>
       </c>
       <c r="H51">
-        <v>0.002748127772996557</v>
+        <v>4.7734808472067181E-3</v>
       </c>
       <c r="I51">
-        <v>0.002421689719775249</v>
+        <v>4.5313831548416022E-3</v>
       </c>
       <c r="J51">
-        <v>6.243979422839969E-06</v>
+        <v>2.1071000996354809E-5</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51">
         <v>29</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C52">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52">
-        <v>0.3461538461538461</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E52">
-        <v>70.62741661071777</v>
+        <v>71.455843687057495</v>
       </c>
       <c r="F52">
-        <v>0.3591339753620224</v>
+        <v>0.38622629366286471</v>
       </c>
       <c r="G52">
-        <v>0.09175008029130952</v>
+        <v>0.1121476934518096</v>
       </c>
       <c r="H52">
-        <v>0.003462770406912544</v>
+        <v>4.6248755874812924E-3</v>
       </c>
       <c r="I52">
-        <v>0.003457111055508027</v>
+        <v>4.4941809281119948E-3</v>
       </c>
       <c r="J52">
-        <v>1.195698622530115E-05</v>
+        <v>2.0485104518303922E-5</v>
       </c>
       <c r="K52">
         <v>13</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -2657,42 +2681,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C53">
-        <v>129</v>
+        <v>131.5</v>
       </c>
       <c r="D53">
-        <v>0.3076923076923077</v>
+        <v>0.34615384615384609</v>
       </c>
       <c r="E53">
-        <v>69.4558436870575</v>
+        <v>68.870057225227356</v>
       </c>
       <c r="F53">
-        <v>0.3756424428503613</v>
+        <v>0.37025215445722692</v>
       </c>
       <c r="G53">
-        <v>0.1027650924594559</v>
+        <v>9.943830027398548E-2</v>
       </c>
       <c r="H53">
-        <v>0.005020395766266381</v>
+        <v>4.710730156804439E-3</v>
       </c>
       <c r="I53">
-        <v>0.00463178365853275</v>
+        <v>4.1276366804343682E-3</v>
       </c>
       <c r="J53">
-        <v>2.233461592653659E-05</v>
+        <v>1.8194282547240649E-5</v>
       </c>
       <c r="K53">
         <v>13</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -2701,355 +2725,2203 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C54">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D54">
-        <v>0.3461538461538461</v>
+        <v>0.05</v>
       </c>
       <c r="E54">
-        <v>70.62741661071777</v>
+        <v>122</v>
       </c>
       <c r="F54">
-        <v>0.3591339753620224</v>
+        <v>2.461158192090394</v>
       </c>
       <c r="G54">
-        <v>0.09175008029130952</v>
+        <v>6.0295218687158796</v>
       </c>
       <c r="H54">
-        <v>0.003462770406912544</v>
+        <v>1.518744579343068E-28</v>
       </c>
       <c r="I54">
-        <v>0.003457111055508027</v>
+        <v>1.517269200020459E-28</v>
       </c>
       <c r="J54">
-        <v>1.195698622530115E-05</v>
+        <v>2.3032248078297509E-56</v>
       </c>
       <c r="K54">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C55">
-        <v>125</v>
+        <v>113.5</v>
       </c>
       <c r="D55">
-        <v>0.3076923076923077</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="E55">
-        <v>70.62741661071777</v>
+        <v>60.384775996208191</v>
       </c>
       <c r="F55">
-        <v>0.3715375217777774</v>
+        <v>0.3221054723168536</v>
       </c>
       <c r="G55">
-        <v>0.09866481533652624</v>
+        <v>6.6578035383805537E-2</v>
       </c>
       <c r="H55">
-        <v>0.004571686949465612</v>
+        <v>2.6222247760419111E-3</v>
       </c>
       <c r="I55">
-        <v>0.004760436939865558</v>
+        <v>2.2660109013029231E-3</v>
       </c>
       <c r="J55">
-        <v>2.220626626858368E-05</v>
+        <v>5.5198811415843743E-6</v>
       </c>
       <c r="K55">
         <v>13</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56">
-        <v>192</v>
+        <v>1800</v>
       </c>
       <c r="C56">
-        <v>117</v>
+        <v>88.5</v>
       </c>
       <c r="D56">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
-        <v>64.62741661071777</v>
+        <v>234.24264061450961</v>
       </c>
       <c r="F56">
-        <v>0.3534868008411238</v>
+        <v>1.237796179569413</v>
       </c>
       <c r="G56">
-        <v>0.08716512269776695</v>
+        <v>0.1567513894325368</v>
       </c>
       <c r="H56">
-        <v>0.004479972648087876</v>
+        <v>4.5949507087248129</v>
       </c>
       <c r="I56">
-        <v>0.003783837359742118</v>
+        <v>6.4949191235402752</v>
       </c>
       <c r="J56">
-        <v>1.557573326911793E-05</v>
+        <v>35.481369355087587</v>
       </c>
       <c r="K56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C57">
-        <v>131.5</v>
+        <v>119</v>
       </c>
       <c r="D57">
-        <v>0.3076923076923077</v>
+        <v>0.32</v>
       </c>
       <c r="E57">
-        <v>69.21320307254791</v>
+        <v>66.627416610717773</v>
       </c>
       <c r="F57">
-        <v>0.3748198687975607</v>
+        <v>0.35654283133586329</v>
       </c>
       <c r="G57">
-        <v>0.1035567390262115</v>
+        <v>9.0049628590413572E-2</v>
       </c>
       <c r="H57">
-        <v>0.004522597959064553</v>
+        <v>4.2353834215670752E-3</v>
       </c>
       <c r="I57">
-        <v>0.00406022043064192</v>
+        <v>3.9058945506182281E-3</v>
       </c>
       <c r="J57">
-        <v>1.739177662175081E-05</v>
+        <v>1.5879599996573982E-5</v>
       </c>
       <c r="K57">
         <v>13</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C58">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>0.3076923076923077</v>
+        <v>0.32</v>
       </c>
       <c r="E58">
-        <v>69.79898953437805</v>
+        <v>66.627416610717773</v>
       </c>
       <c r="F58">
-        <v>0.3736554281528182</v>
+        <v>0.35654283133586329</v>
       </c>
       <c r="G58">
-        <v>0.1018875424027982</v>
+        <v>9.0049628590413572E-2</v>
       </c>
       <c r="H58">
-        <v>0.004859155061580211</v>
+        <v>4.2353834215670752E-3</v>
       </c>
       <c r="I58">
-        <v>0.004548716316372215</v>
+        <v>3.9058945506182281E-3</v>
       </c>
       <c r="J58">
-        <v>2.138006684300366E-05</v>
+        <v>1.5879599996573982E-5</v>
       </c>
       <c r="K58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C59">
-        <v>135</v>
+        <v>127.5</v>
       </c>
       <c r="D59">
-        <v>0.3461538461538461</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E59">
-        <v>73.4558436870575</v>
+        <v>66.870057225227356</v>
       </c>
       <c r="F59">
-        <v>0.3632931520149921</v>
+        <v>0.36580728544995711</v>
       </c>
       <c r="G59">
-        <v>0.09279324030228291</v>
+        <v>9.7638606726600657E-2</v>
       </c>
       <c r="H59">
-        <v>0.004837911085272131</v>
+        <v>3.7120621168646901E-3</v>
       </c>
       <c r="I59">
-        <v>0.004688439216366654</v>
+        <v>3.5871749001484179E-3</v>
       </c>
       <c r="J59">
-        <v>2.232751278613577E-05</v>
+        <v>1.308406397010083E-5</v>
       </c>
       <c r="K59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C60">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D60">
-        <v>0.3076923076923077</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E60">
-        <v>70.62741661071777</v>
+        <v>62.627416610717773</v>
       </c>
       <c r="F60">
-        <v>0.3715375217777774</v>
+        <v>0.34681839563820038</v>
       </c>
       <c r="G60">
-        <v>0.09866481533652624</v>
+        <v>8.3900660014924758E-2</v>
       </c>
       <c r="H60">
-        <v>0.004571686949465612</v>
+        <v>3.8131825528886932E-3</v>
       </c>
       <c r="I60">
-        <v>0.004760436939865558</v>
+        <v>3.4235323826355972E-3</v>
       </c>
       <c r="J60">
-        <v>2.220626626858368E-05</v>
+        <v>1.235835641085078E-5</v>
       </c>
       <c r="K60">
         <v>13</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61">
+        <v>192</v>
+      </c>
+      <c r="C61">
+        <v>118</v>
+      </c>
+      <c r="D61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E61">
+        <v>62.627416610717773</v>
+      </c>
+      <c r="F61">
+        <v>0.34681839563820038</v>
+      </c>
+      <c r="G61">
+        <v>8.3900660014924758E-2</v>
+      </c>
+      <c r="H61">
+        <v>3.8131825528886932E-3</v>
+      </c>
+      <c r="I61">
+        <v>3.4235323826355972E-3</v>
+      </c>
+      <c r="J61">
+        <v>1.235835641085078E-5</v>
+      </c>
+      <c r="K61">
+        <v>13</v>
+      </c>
+      <c r="L61">
+        <v>32</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>192</v>
+      </c>
+      <c r="C62">
+        <v>57.5</v>
+      </c>
+      <c r="D62">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E62">
+        <v>59.899494767189033</v>
+      </c>
+      <c r="F62">
+        <v>0.78427206560550855</v>
+      </c>
+      <c r="G62">
+        <v>0.48559921632703318</v>
+      </c>
+      <c r="H62">
+        <v>0.34998989048303031</v>
+      </c>
+      <c r="I62">
+        <v>0.24126798751684381</v>
+      </c>
+      <c r="J62">
+        <v>6.9987010459006474E-2</v>
+      </c>
+      <c r="K62">
+        <v>13</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>73.5</v>
+      </c>
+      <c r="D63">
+        <v>0.32</v>
+      </c>
+      <c r="E63">
+        <v>61.556348919868469</v>
+      </c>
+      <c r="F63">
+        <v>0.71690300649134098</v>
+      </c>
+      <c r="G63">
+        <v>0.42078186635082848</v>
+      </c>
+      <c r="H63">
+        <v>0.181123930903824</v>
+      </c>
+      <c r="I63">
+        <v>0.12450769326897861</v>
+      </c>
+      <c r="J63">
+        <v>1.86566503350876E-2</v>
+      </c>
+      <c r="K63">
+        <v>14</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>12</v>
+      </c>
+      <c r="N63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>192</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E64">
+        <v>61.313708305358887</v>
+      </c>
+      <c r="F64">
+        <v>0.8419642708072469</v>
+      </c>
+      <c r="G64">
+        <v>0.55144532014658287</v>
+      </c>
+      <c r="H64">
+        <v>0.45372391181462179</v>
+      </c>
+      <c r="I64">
+        <v>0.31224374774283731</v>
+      </c>
+      <c r="J64">
+        <v>0.1173231435548867</v>
+      </c>
+      <c r="K64">
+        <v>13</v>
+      </c>
+      <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>216</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>0.375</v>
+      </c>
+      <c r="E65">
+        <v>62.142135381698608</v>
+      </c>
+      <c r="F65">
+        <v>0.84702753660089847</v>
+      </c>
+      <c r="G65">
+        <v>0.56826890049934409</v>
+      </c>
+      <c r="H65">
+        <v>0.40494505699563849</v>
+      </c>
+      <c r="I65">
+        <v>0.273371244801073</v>
+      </c>
+      <c r="J65">
+        <v>9.0736193805585549E-2</v>
+      </c>
+      <c r="K65">
+        <v>14</v>
+      </c>
+      <c r="L65">
+        <v>27</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>192</v>
+      </c>
+      <c r="C66">
+        <v>55</v>
+      </c>
+      <c r="D66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E66">
+        <v>59.313708305358887</v>
+      </c>
+      <c r="F66">
+        <v>0.81637699307120992</v>
+      </c>
+      <c r="G66">
+        <v>0.52680053950606676</v>
+      </c>
+      <c r="H66">
+        <v>0.46214003018940958</v>
+      </c>
+      <c r="I66">
+        <v>0.33020386744130398</v>
+      </c>
+      <c r="J66">
+        <v>0.12882681558107609</v>
+      </c>
+      <c r="K66">
+        <v>14</v>
+      </c>
+      <c r="L66">
+        <v>27</v>
+      </c>
+      <c r="M66">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67">
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <v>7.5</v>
+      </c>
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <v>0.81417624521072796</v>
+      </c>
+      <c r="G67">
+        <v>0.63510518048766174</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>14</v>
+      </c>
+      <c r="L67">
+        <v>57</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>216</v>
+      </c>
+      <c r="C68">
+        <v>70.5</v>
+      </c>
+      <c r="D68">
+        <v>0.375</v>
+      </c>
+      <c r="E68">
+        <v>60.727921843528748</v>
+      </c>
+      <c r="F68">
+        <v>0.68100873958920849</v>
+      </c>
+      <c r="G68">
+        <v>0.36002208215307357</v>
+      </c>
+      <c r="H68">
+        <v>0.17532737771062629</v>
+      </c>
+      <c r="I68">
+        <v>0.1073653609483512</v>
+      </c>
+      <c r="J68">
+        <v>1.4684498673754759E-2</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>26</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>192</v>
+      </c>
+      <c r="C69">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E69">
+        <v>59.313708305358887</v>
+      </c>
+      <c r="F69">
+        <v>0.84418494611137229</v>
+      </c>
+      <c r="G69">
+        <v>0.5697816526616698</v>
+      </c>
+      <c r="H69">
+        <v>0.53005176692041212</v>
+      </c>
+      <c r="I69">
+        <v>0.38571498391156223</v>
+      </c>
+      <c r="J69">
+        <v>0.17424759953777461</v>
+      </c>
+      <c r="K69">
+        <v>14</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>192</v>
+      </c>
+      <c r="C70">
+        <v>59.5</v>
+      </c>
+      <c r="D70">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E70">
+        <v>60.727921843528748</v>
+      </c>
+      <c r="F70">
+        <v>0.85038055426487813</v>
+      </c>
+      <c r="G70">
+        <v>0.58876302641155587</v>
+      </c>
+      <c r="H70">
+        <v>0.42153133444363527</v>
+      </c>
+      <c r="I70">
+        <v>0.30157181101201169</v>
+      </c>
+      <c r="J70">
+        <v>0.1073850111715149</v>
+      </c>
+      <c r="K70">
+        <v>13</v>
+      </c>
+      <c r="L70">
+        <v>22</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>240</v>
+      </c>
+      <c r="C71">
+        <v>77.5</v>
+      </c>
+      <c r="D71">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E71">
+        <v>61.213203072547913</v>
+      </c>
+      <c r="F71">
+        <v>0.62385057381237519</v>
+      </c>
+      <c r="G71">
+        <v>0.2885079788410157</v>
+      </c>
+      <c r="H71">
+        <v>0.1433340003218668</v>
+      </c>
+      <c r="I71">
+        <v>8.4200112588671092E-2</v>
+      </c>
+      <c r="J71">
+        <v>9.2104631303164559E-3</v>
+      </c>
+      <c r="K71">
+        <v>13</v>
+      </c>
+      <c r="L71">
+        <v>25</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>192</v>
+      </c>
+      <c r="C72">
+        <v>55</v>
+      </c>
+      <c r="D72">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72">
+        <v>60.142135381698608</v>
+      </c>
+      <c r="F72">
+        <v>1.0093860923282421</v>
+      </c>
+      <c r="G72">
+        <v>0.8563010354639824</v>
+      </c>
+      <c r="H72">
+        <v>0.50968258821900725</v>
+      </c>
+      <c r="I72">
+        <v>0.3589871520026498</v>
+      </c>
+      <c r="J72">
+        <v>0.15331413098862909</v>
+      </c>
+      <c r="K72">
+        <v>14</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>62</v>
+      </c>
+      <c r="F73">
+        <v>1.214080459770114</v>
+      </c>
+      <c r="G73">
+        <v>1.446213585017835</v>
+      </c>
+      <c r="H73">
+        <v>5.2071610491150552E-30</v>
+      </c>
+      <c r="I73">
+        <v>5.1671477732123998E-30</v>
+      </c>
+      <c r="J73">
+        <v>2.6802574173089351E-59</v>
+      </c>
+      <c r="K73">
+        <v>14</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>30</v>
+      </c>
+      <c r="N73">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>192</v>
+      </c>
+      <c r="C74">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E74">
+        <v>61.313708305358887</v>
+      </c>
+      <c r="F74">
+        <v>0.8419642708072469</v>
+      </c>
+      <c r="G74">
+        <v>0.55144532014658287</v>
+      </c>
+      <c r="H74">
+        <v>0.45372391181462179</v>
+      </c>
+      <c r="I74">
+        <v>0.31224374774283731</v>
+      </c>
+      <c r="J74">
+        <v>0.1173231435548867</v>
+      </c>
+      <c r="K74">
+        <v>13</v>
+      </c>
+      <c r="L74">
+        <v>28</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
         <v>234</v>
       </c>
-      <c r="C61">
+      <c r="C75">
+        <v>167</v>
+      </c>
+      <c r="D75">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E75">
+        <v>61.798989534378052</v>
+      </c>
+      <c r="F75">
+        <v>0.31103960938008968</v>
+      </c>
+      <c r="G75">
+        <v>6.8652378659772903E-2</v>
+      </c>
+      <c r="H75">
+        <v>2.8713007937685413E-4</v>
+      </c>
+      <c r="I75">
+        <v>1.466576307836378E-4</v>
+      </c>
+      <c r="J75">
+        <v>3.0086559129078893E-8</v>
+      </c>
+      <c r="K75">
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>225</v>
+      </c>
+      <c r="C76">
+        <v>154</v>
+      </c>
+      <c r="D76">
+        <v>0.36</v>
+      </c>
+      <c r="E76">
+        <v>60.627416610717773</v>
+      </c>
+      <c r="F76">
+        <v>0.29885082543625369</v>
+      </c>
+      <c r="G76">
+        <v>6.1033433323911632E-2</v>
+      </c>
+      <c r="H76">
+        <v>2.5779504419986811E-4</v>
+      </c>
+      <c r="I76">
+        <v>1.2913090411390631E-4</v>
+      </c>
+      <c r="J76">
+        <v>2.3560196957986839E-8</v>
+      </c>
+      <c r="K76">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <v>30</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>192</v>
+      </c>
+      <c r="C77">
+        <v>133.5</v>
+      </c>
+      <c r="D77">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E77">
+        <v>56.384775996208191</v>
+      </c>
+      <c r="F77">
+        <v>0.31656421608288771</v>
+      </c>
+      <c r="G77">
+        <v>7.2376346105045092E-2</v>
+      </c>
+      <c r="H77">
+        <v>2.5939383906137112E-4</v>
+      </c>
+      <c r="I77">
+        <v>1.4720046307685819E-4</v>
+      </c>
+      <c r="J77">
+        <v>2.876332984397668E-8</v>
+      </c>
+      <c r="K77">
+        <v>13</v>
+      </c>
+      <c r="L77">
+        <v>31</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>208</v>
+      </c>
+      <c r="C78">
+        <v>145</v>
+      </c>
+      <c r="D78">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E78">
+        <v>59.798989534378052</v>
+      </c>
+      <c r="F78">
+        <v>0.33737921922906888</v>
+      </c>
+      <c r="G78">
+        <v>8.5958898477463394E-2</v>
+      </c>
+      <c r="H78">
+        <v>2.3608885775594119E-4</v>
+      </c>
+      <c r="I78">
+        <v>1.3121695580552199E-4</v>
+      </c>
+      <c r="J78">
+        <v>2.3084525988428258E-8</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>29</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>234</v>
+      </c>
+      <c r="C79">
+        <v>164.5</v>
+      </c>
+      <c r="D79">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E79">
+        <v>62.384775996208191</v>
+      </c>
+      <c r="F79">
+        <v>0.31911293322993528</v>
+      </c>
+      <c r="G79">
+        <v>7.3408426603383287E-2</v>
+      </c>
+      <c r="H79">
+        <v>2.8955964668689088E-4</v>
+      </c>
+      <c r="I79">
+        <v>1.5526963290592931E-4</v>
+      </c>
+      <c r="J79">
+        <v>3.2902140704343713E-8</v>
+      </c>
+      <c r="K79">
+        <v>14</v>
+      </c>
+      <c r="L79">
+        <v>28</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>184</v>
+      </c>
+      <c r="C80">
+        <v>129</v>
+      </c>
+      <c r="D80">
+        <v>0.34782608695652167</v>
+      </c>
+      <c r="E80">
+        <v>54.97056245803833</v>
+      </c>
+      <c r="F80">
+        <v>0.30650505395880762</v>
+      </c>
+      <c r="G80">
+        <v>6.5878949459326236E-2</v>
+      </c>
+      <c r="H80">
+        <v>3.4173786226130451E-4</v>
+      </c>
+      <c r="I80">
+        <v>1.629294309095737E-4</v>
+      </c>
+      <c r="J80">
+        <v>3.8415860258856253E-8</v>
+      </c>
+      <c r="K80">
+        <v>13</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>243</v>
+      </c>
+      <c r="C81">
+        <v>177.5</v>
+      </c>
+      <c r="D81">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E81">
+        <v>65.213203072547913</v>
+      </c>
+      <c r="F81">
+        <v>0.31569072261601888</v>
+      </c>
+      <c r="G81">
+        <v>7.1638750561527131E-2</v>
+      </c>
+      <c r="H81">
+        <v>1.749095220211529E-4</v>
+      </c>
+      <c r="I81">
+        <v>9.6309165859050807E-5</v>
+      </c>
+      <c r="J81">
+        <v>1.2499946544771619E-8</v>
+      </c>
+      <c r="K81">
+        <v>14</v>
+      </c>
+      <c r="L81">
+        <v>27</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>208</v>
+      </c>
+      <c r="C82">
+        <v>157</v>
+      </c>
+      <c r="D82">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E82">
+        <v>60.97056245803833</v>
+      </c>
+      <c r="F82">
+        <v>0.32811273248812423</v>
+      </c>
+      <c r="G82">
+        <v>8.0100108283827243E-2</v>
+      </c>
+      <c r="H82">
+        <v>2.0878990863536639E-5</v>
+      </c>
+      <c r="I82">
+        <v>1.50881039055372E-5</v>
+      </c>
+      <c r="J82">
+        <v>2.6779764371138289E-10</v>
+      </c>
+      <c r="K82">
+        <v>14</v>
+      </c>
+      <c r="L82">
+        <v>30</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>135.5</v>
+      </c>
+      <c r="D83">
+        <v>0.32</v>
+      </c>
+      <c r="E83">
+        <v>58.384775996208191</v>
+      </c>
+      <c r="F83">
+        <v>0.33527763852957582</v>
+      </c>
+      <c r="G83">
+        <v>8.3962823661729205E-2</v>
+      </c>
+      <c r="H83">
+        <v>4.1582782870525201E-4</v>
+      </c>
+      <c r="I83">
+        <v>2.2967353393852001E-4</v>
+      </c>
+      <c r="J83">
+        <v>7.0962541992799894E-8</v>
+      </c>
+      <c r="K83">
+        <v>13</v>
+      </c>
+      <c r="L83">
+        <v>30</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>192</v>
+      </c>
+      <c r="C84">
+        <v>139</v>
+      </c>
+      <c r="D84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E84">
+        <v>56.97056245803833</v>
+      </c>
+      <c r="F84">
+        <v>0.31762143724283448</v>
+      </c>
+      <c r="G84">
+        <v>7.2797996185157185E-2</v>
+      </c>
+      <c r="H84">
+        <v>1.323632467287743E-4</v>
+      </c>
+      <c r="I84">
+        <v>8.075115391526645E-5</v>
+      </c>
+      <c r="J84">
+        <v>8.3476233686336938E-9</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>234</v>
+      </c>
+      <c r="C85">
+        <v>165.5</v>
+      </c>
+      <c r="D85">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E85">
+        <v>62.384775996208191</v>
+      </c>
+      <c r="F85">
+        <v>0.31557120456981902</v>
+      </c>
+      <c r="G85">
+        <v>7.1512268259728687E-2</v>
+      </c>
+      <c r="H85">
+        <v>2.7961101994127132E-4</v>
+      </c>
+      <c r="I85">
+        <v>1.4505349638274179E-4</v>
+      </c>
+      <c r="J85">
+        <v>2.9132350154186911E-8</v>
+      </c>
+      <c r="K85">
+        <v>15</v>
+      </c>
+      <c r="L85">
+        <v>28</v>
+      </c>
+      <c r="M85">
+        <v>13</v>
+      </c>
+      <c r="N85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>234</v>
+      </c>
+      <c r="C86">
+        <v>164.5</v>
+      </c>
+      <c r="D86">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E86">
+        <v>62.384775996208191</v>
+      </c>
+      <c r="F86">
+        <v>0.31911293322993561</v>
+      </c>
+      <c r="G86">
+        <v>7.3408426603383134E-2</v>
+      </c>
+      <c r="H86">
+        <v>2.895596466868138E-4</v>
+      </c>
+      <c r="I86">
+        <v>1.552696329059447E-4</v>
+      </c>
+      <c r="J86">
+        <v>3.290214070434409E-8</v>
+      </c>
+      <c r="K86">
+        <v>13</v>
+      </c>
+      <c r="L86">
+        <v>28</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>234</v>
+      </c>
+      <c r="C87">
+        <v>162</v>
+      </c>
+      <c r="D87">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E87">
+        <v>62.97056245803833</v>
+      </c>
+      <c r="F87">
+        <v>0.31807928819944331</v>
+      </c>
+      <c r="G87">
+        <v>7.3248860429811713E-2</v>
+      </c>
+      <c r="H87">
+        <v>3.2301448146530441E-4</v>
+      </c>
+      <c r="I87">
+        <v>1.8589792467547931E-4</v>
+      </c>
+      <c r="J87">
+        <v>4.5552440694253771E-8</v>
+      </c>
+      <c r="K87">
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <v>30</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>234</v>
+      </c>
+      <c r="C88">
+        <v>162</v>
+      </c>
+      <c r="D88">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E88">
+        <v>61.798989534378052</v>
+      </c>
+      <c r="F88">
+        <v>0.32126011845362179</v>
+      </c>
+      <c r="G88">
+        <v>7.4848322490886632E-2</v>
+      </c>
+      <c r="H88">
+        <v>3.2619799666087679E-4</v>
+      </c>
+      <c r="I88">
+        <v>1.7221013248134819E-4</v>
+      </c>
+      <c r="J88">
+        <v>4.0815157383067857E-8</v>
+      </c>
+      <c r="K88">
+        <v>14</v>
+      </c>
+      <c r="L88">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>208</v>
+      </c>
+      <c r="C89">
+        <v>157</v>
+      </c>
+      <c r="D89">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E89">
+        <v>60.97056245803833</v>
+      </c>
+      <c r="F89">
+        <v>0.32811273248812362</v>
+      </c>
+      <c r="G89">
+        <v>8.0100108283826896E-2</v>
+      </c>
+      <c r="H89">
+        <v>2.0878990863529751E-5</v>
+      </c>
+      <c r="I89">
+        <v>1.508810390550792E-5</v>
+      </c>
+      <c r="J89">
+        <v>2.6779764371055932E-10</v>
+      </c>
+      <c r="K89">
+        <v>13</v>
+      </c>
+      <c r="L89">
+        <v>28</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>216</v>
+      </c>
+      <c r="C90">
+        <v>155.5</v>
+      </c>
+      <c r="D90">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E90">
+        <v>62.384775996208191</v>
+      </c>
+      <c r="F90">
+        <v>0.34192214518269948</v>
+      </c>
+      <c r="G90">
+        <v>8.9273093378365198E-2</v>
+      </c>
+      <c r="H90">
+        <v>7.7242007721697132E-5</v>
+      </c>
+      <c r="I90">
+        <v>4.4662683675579162E-5</v>
+      </c>
+      <c r="J90">
+        <v>2.6232703009010419E-9</v>
+      </c>
+      <c r="K90">
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>13</v>
+      </c>
+      <c r="N90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>192</v>
+      </c>
+      <c r="C91">
+        <v>128.5</v>
+      </c>
+      <c r="D91">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E91">
+        <v>56.384775996208191</v>
+      </c>
+      <c r="F91">
+        <v>0.32616590898854247</v>
+      </c>
+      <c r="G91">
+        <v>7.8336572733500962E-2</v>
+      </c>
+      <c r="H91">
+        <v>3.4036287035052519E-4</v>
+      </c>
+      <c r="I91">
+        <v>1.8987953338839929E-4</v>
+      </c>
+      <c r="J91">
+        <v>4.8270098240102811E-8</v>
+      </c>
+      <c r="K91">
+        <v>13</v>
+      </c>
+      <c r="L91">
+        <v>31</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>208</v>
+      </c>
+      <c r="C92">
+        <v>141</v>
+      </c>
+      <c r="D92">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E92">
+        <v>59.798989534378052</v>
+      </c>
+      <c r="F92">
+        <v>0.34745793816787479</v>
+      </c>
+      <c r="G92">
+        <v>9.2677533397938147E-2</v>
+      </c>
+      <c r="H92">
+        <v>4.2039836544818961E-4</v>
+      </c>
+      <c r="I92">
+        <v>2.4844486614786861E-4</v>
+      </c>
+      <c r="J92">
+        <v>8.0290397161110481E-8</v>
+      </c>
+      <c r="K92">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>27</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>234</v>
+      </c>
+      <c r="C93">
+        <v>148.5</v>
+      </c>
+      <c r="D93">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E93">
+        <v>71.213203072547913</v>
+      </c>
+      <c r="F93">
+        <v>0.33944141192708838</v>
+      </c>
+      <c r="G93">
+        <v>7.8755682498438173E-2</v>
+      </c>
+      <c r="H93">
+        <v>2.7481277729965569E-3</v>
+      </c>
+      <c r="I93">
+        <v>2.4216897197752488E-3</v>
+      </c>
+      <c r="J93">
+        <v>6.2439794228399686E-6</v>
+      </c>
+      <c r="K93">
+        <v>12</v>
+      </c>
+      <c r="L93">
+        <v>29</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>234</v>
+      </c>
+      <c r="C94">
+        <v>139</v>
+      </c>
+      <c r="D94">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E94">
+        <v>70.627416610717773</v>
+      </c>
+      <c r="F94">
+        <v>0.35913397536202241</v>
+      </c>
+      <c r="G94">
+        <v>9.1750080291309516E-2</v>
+      </c>
+      <c r="H94">
+        <v>3.462770406912544E-3</v>
+      </c>
+      <c r="I94">
+        <v>3.4571110555080271E-3</v>
+      </c>
+      <c r="J94">
+        <v>1.1956986225301149E-5</v>
+      </c>
+      <c r="K94">
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <v>27</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>208</v>
+      </c>
+      <c r="C95">
+        <v>129</v>
+      </c>
+      <c r="D95">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E95">
+        <v>69.455843687057495</v>
+      </c>
+      <c r="F95">
+        <v>0.3756424428503613</v>
+      </c>
+      <c r="G95">
+        <v>0.10276509245945591</v>
+      </c>
+      <c r="H95">
+        <v>5.0203957662663806E-3</v>
+      </c>
+      <c r="I95">
+        <v>4.6317836585327496E-3</v>
+      </c>
+      <c r="J95">
+        <v>2.233461592653659E-5</v>
+      </c>
+      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>29</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>234</v>
+      </c>
+      <c r="C96">
+        <v>139</v>
+      </c>
+      <c r="D96">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E96">
+        <v>70.627416610717773</v>
+      </c>
+      <c r="F96">
+        <v>0.35913397536202241</v>
+      </c>
+      <c r="G96">
+        <v>9.1750080291309516E-2</v>
+      </c>
+      <c r="H96">
+        <v>3.462770406912544E-3</v>
+      </c>
+      <c r="I96">
+        <v>3.4571110555080271E-3</v>
+      </c>
+      <c r="J96">
+        <v>1.1956986225301149E-5</v>
+      </c>
+      <c r="K96">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>27</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>208</v>
+      </c>
+      <c r="C97">
+        <v>125</v>
+      </c>
+      <c r="D97">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E97">
+        <v>70.627416610717773</v>
+      </c>
+      <c r="F97">
+        <v>0.37153752177777738</v>
+      </c>
+      <c r="G97">
+        <v>9.866481533652624E-2</v>
+      </c>
+      <c r="H97">
+        <v>4.5716869494656122E-3</v>
+      </c>
+      <c r="I97">
+        <v>4.7604369398655576E-3</v>
+      </c>
+      <c r="J97">
+        <v>2.220626626858368E-5</v>
+      </c>
+      <c r="K97">
+        <v>13</v>
+      </c>
+      <c r="L97">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>192</v>
+      </c>
+      <c r="C98">
+        <v>117</v>
+      </c>
+      <c r="D98">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E98">
+        <v>64.627416610717773</v>
+      </c>
+      <c r="F98">
+        <v>0.35348680084112383</v>
+      </c>
+      <c r="G98">
+        <v>8.7165122697766953E-2</v>
+      </c>
+      <c r="H98">
+        <v>4.4799726480878764E-3</v>
+      </c>
+      <c r="I98">
+        <v>3.783837359742118E-3</v>
+      </c>
+      <c r="J98">
+        <v>1.557573326911793E-5</v>
+      </c>
+      <c r="K98">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>25</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>208</v>
+      </c>
+      <c r="C99">
+        <v>131.5</v>
+      </c>
+      <c r="D99">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E99">
+        <v>69.213203072547913</v>
+      </c>
+      <c r="F99">
+        <v>0.37481986879756068</v>
+      </c>
+      <c r="G99">
+        <v>0.1035567390262115</v>
+      </c>
+      <c r="H99">
+        <v>4.5225979590645532E-3</v>
+      </c>
+      <c r="I99">
+        <v>4.0602204306419204E-3</v>
+      </c>
+      <c r="J99">
+        <v>1.7391776621750809E-5</v>
+      </c>
+      <c r="K99">
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <v>27</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>208</v>
+      </c>
+      <c r="C100">
+        <v>132</v>
+      </c>
+      <c r="D100">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E100">
+        <v>69.798989534378052</v>
+      </c>
+      <c r="F100">
+        <v>0.37365542815281821</v>
+      </c>
+      <c r="G100">
+        <v>0.1018875424027982</v>
+      </c>
+      <c r="H100">
+        <v>4.859155061580211E-3</v>
+      </c>
+      <c r="I100">
+        <v>4.5487163163722153E-3</v>
+      </c>
+      <c r="J100">
+        <v>2.1380066843003661E-5</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>27</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>234</v>
+      </c>
+      <c r="C101">
+        <v>135</v>
+      </c>
+      <c r="D101">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E101">
+        <v>73.455843687057495</v>
+      </c>
+      <c r="F101">
+        <v>0.36329315201499213</v>
+      </c>
+      <c r="G101">
+        <v>9.2793240302282906E-2</v>
+      </c>
+      <c r="H101">
+        <v>4.8379110852721308E-3</v>
+      </c>
+      <c r="I101">
+        <v>4.6884392163666537E-3</v>
+      </c>
+      <c r="J101">
+        <v>2.232751278613577E-5</v>
+      </c>
+      <c r="K101">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>31</v>
+      </c>
+      <c r="M101">
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>208</v>
+      </c>
+      <c r="C102">
+        <v>125</v>
+      </c>
+      <c r="D102">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E102">
+        <v>70.627416610717773</v>
+      </c>
+      <c r="F102">
+        <v>0.37153752177777738</v>
+      </c>
+      <c r="G102">
+        <v>9.866481533652624E-2</v>
+      </c>
+      <c r="H102">
+        <v>4.5716869494656122E-3</v>
+      </c>
+      <c r="I102">
+        <v>4.7604369398655576E-3</v>
+      </c>
+      <c r="J102">
+        <v>2.220626626858368E-5</v>
+      </c>
+      <c r="K102">
+        <v>13</v>
+      </c>
+      <c r="L102">
+        <v>30</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>234</v>
+      </c>
+      <c r="C103">
         <v>143</v>
       </c>
-      <c r="D61">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="E61">
-        <v>69.4558436870575</v>
-      </c>
-      <c r="F61">
+      <c r="D103">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="E103">
+        <v>69.455843687057495</v>
+      </c>
+      <c r="F103">
         <v>0.348960409513492</v>
       </c>
-      <c r="G61">
-        <v>0.08464079456338248</v>
-      </c>
-      <c r="H61">
-        <v>0.003817966239336915</v>
-      </c>
-      <c r="I61">
-        <v>0.003479961456484349</v>
-      </c>
-      <c r="J61">
-        <v>1.26741783530171E-05</v>
-      </c>
-      <c r="K61">
-        <v>13</v>
-      </c>
-      <c r="L61">
+      <c r="G103">
+        <v>8.4640794563382485E-2</v>
+      </c>
+      <c r="H103">
+        <v>3.8179662393369152E-3</v>
+      </c>
+      <c r="I103">
+        <v>3.4799614564843492E-3</v>
+      </c>
+      <c r="J103">
+        <v>1.2674178353017099E-5</v>
+      </c>
+      <c r="K103">
+        <v>13</v>
+      </c>
+      <c r="L103">
         <v>27</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
         <v>0</v>
       </c>
     </row>

--- a/PROJECTS/project_07_sudoku_solver/characteristics.xlsx
+++ b/PROJECTS/project_07_sudoku_solver/characteristics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="9">
   <si>
     <t>1</t>
   </si>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,22 +583,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C5">
-        <v>233.1126978397369</v>
+        <v>233.9411249160767</v>
       </c>
       <c r="D5">
-        <v>0.3461339359083643</v>
+        <v>0.3566334452721391</v>
       </c>
       <c r="E5">
-        <v>0.06447614842030348</v>
+        <v>0.06521508842760407</v>
       </c>
       <c r="F5">
-        <v>0.0003648452820390062</v>
+        <v>0.0003605750576786815</v>
       </c>
       <c r="G5">
-        <v>6.435439059759226E-05</v>
+        <v>0.0001035764188471654</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -607,22 +607,22 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="K5">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>23</v>
       </c>
       <c r="O5">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -633,46 +633,46 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1247.5</v>
+        <v>1128</v>
       </c>
       <c r="C6">
-        <v>240.8700572252274</v>
+        <v>226.911687374115</v>
       </c>
       <c r="D6">
-        <v>0.3204421081113521</v>
+        <v>0.3608305465063177</v>
       </c>
       <c r="E6">
-        <v>0.04952662448512332</v>
+        <v>0.07015608247900314</v>
       </c>
       <c r="F6">
-        <v>0.0002943512781377471</v>
+        <v>0.0003261114718824043</v>
       </c>
       <c r="G6">
-        <v>4.904108877016649E-05</v>
+        <v>0.0001046738638864113</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="J6">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K6">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>8</v>
       </c>
       <c r="N6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -683,46 +683,46 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1154</v>
+        <v>1247.5</v>
       </c>
       <c r="C7">
-        <v>233.1126978397369</v>
+        <v>240.8700572252274</v>
       </c>
       <c r="D7">
-        <v>0.3461339359083643</v>
+        <v>0.3204421081113521</v>
       </c>
       <c r="E7">
-        <v>0.06447614842030348</v>
+        <v>0.04952662448512332</v>
       </c>
       <c r="F7">
-        <v>0.0003648452820390062</v>
+        <v>0.0002943512781377471</v>
       </c>
       <c r="G7">
-        <v>6.435439059759226E-05</v>
+        <v>4.904108877016649E-05</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="J7">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K7">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>23</v>
       </c>
       <c r="O7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -733,46 +733,46 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1320.5</v>
+        <v>1154</v>
       </c>
       <c r="C8">
-        <v>236.0416301488876</v>
+        <v>233.1126978397369</v>
       </c>
       <c r="D8">
-        <v>0.3037153964153461</v>
+        <v>0.3461339359083643</v>
       </c>
       <c r="E8">
-        <v>0.04432573778329524</v>
+        <v>0.06447614842030348</v>
       </c>
       <c r="F8">
-        <v>9.858497660493671E-05</v>
+        <v>0.0003648452820390062</v>
       </c>
       <c r="G8">
-        <v>2.257194554887832E-05</v>
+        <v>6.435439059759226E-05</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="K8">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>8</v>
-      </c>
       <c r="N8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -783,46 +783,46 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1208.5</v>
+        <v>1320.5</v>
       </c>
       <c r="C9">
-        <v>243.6984843015671</v>
+        <v>236.0416301488876</v>
       </c>
       <c r="D9">
-        <v>0.3365614670564337</v>
+        <v>0.3037153964153461</v>
       </c>
       <c r="E9">
-        <v>0.05654705522891188</v>
+        <v>0.04432573778329524</v>
       </c>
       <c r="F9">
-        <v>0.0002719801385865804</v>
+        <v>9.858497660493671E-05</v>
       </c>
       <c r="G9">
-        <v>5.515858425178018E-05</v>
+        <v>2.257194554887832E-05</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
       <c r="J9">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="K9">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -833,46 +833,46 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1266</v>
+        <v>1208.5</v>
       </c>
       <c r="C10">
-        <v>234.2842707633972</v>
+        <v>243.6984843015671</v>
       </c>
       <c r="D10">
-        <v>0.3085533486625941</v>
+        <v>0.3365614670564337</v>
       </c>
       <c r="E10">
-        <v>0.04574885266429324</v>
+        <v>0.05654705522891188</v>
       </c>
       <c r="F10">
-        <v>0.0001579878965677963</v>
+        <v>0.0002719801385865804</v>
       </c>
       <c r="G10">
-        <v>3.530486073888707E-05</v>
+        <v>5.515858425178018E-05</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>30</v>
       </c>
       <c r="J10">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K10">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -883,46 +883,46 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="C11">
-        <v>230.2842707633972</v>
+        <v>234.2842707633972</v>
       </c>
       <c r="D11">
-        <v>0.3111790009923883</v>
+        <v>0.3085533486625941</v>
       </c>
       <c r="E11">
-        <v>0.0483469239819825</v>
+        <v>0.04574885266429324</v>
       </c>
       <c r="F11">
-        <v>0.0002150127943583115</v>
+        <v>0.0001579878965677963</v>
       </c>
       <c r="G11">
-        <v>5.110234167131359E-05</v>
+        <v>3.530486073888707E-05</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>30</v>
       </c>
       <c r="J11">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="K11">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1133.5</v>
+        <v>1274</v>
       </c>
       <c r="C12">
-        <v>226.5269113779068</v>
+        <v>230.2842707633972</v>
       </c>
       <c r="D12">
-        <v>0.3595170077351558</v>
+        <v>0.3111790009923883</v>
       </c>
       <c r="E12">
-        <v>0.07178235171101657</v>
+        <v>0.0483469239819825</v>
       </c>
       <c r="F12">
-        <v>0.0003697572482162165</v>
+        <v>0.0002150127943583115</v>
       </c>
       <c r="G12">
-        <v>6.392940798347943E-05</v>
+        <v>5.110234167131359E-05</v>
       </c>
       <c r="H12">
         <v>15</v>
@@ -957,22 +957,22 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="K12">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>7</v>
       </c>
       <c r="N12">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -980,49 +980,49 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1297</v>
+        <v>1133.5</v>
       </c>
       <c r="C13">
-        <v>224.2842707633972</v>
+        <v>226.5269113779068</v>
       </c>
       <c r="D13">
-        <v>0.2781192466819015</v>
+        <v>0.3595170077351558</v>
       </c>
       <c r="E13">
-        <v>0.03583818074569605</v>
+        <v>0.07178235171101657</v>
       </c>
       <c r="F13">
-        <v>0.0003244683948607954</v>
+        <v>0.0003697572482162165</v>
       </c>
       <c r="G13">
-        <v>0.000112138251253816</v>
+        <v>6.392940798347943E-05</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K13">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="O13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1030,49 +1030,49 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1284.5</v>
+        <v>1181.5</v>
       </c>
       <c r="C14">
-        <v>214.0416301488876</v>
+        <v>237.012192606926</v>
       </c>
       <c r="D14">
-        <v>0.2841012167497708</v>
+        <v>0.3493026188264082</v>
       </c>
       <c r="E14">
-        <v>0.03770817077350321</v>
+        <v>0.06042000868512066</v>
       </c>
       <c r="F14">
-        <v>0.0007474028283664535</v>
+        <v>0.0002564064481251157</v>
       </c>
       <c r="G14">
-        <v>0.0001462959342401119</v>
+        <v>7.548408159487903E-05</v>
       </c>
       <c r="H14">
         <v>15</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="K14">
-        <v>302</v>
+        <v>411</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1083,46 +1083,46 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>1230</v>
+        <v>1297</v>
       </c>
       <c r="C15">
-        <v>228.2842707633972</v>
+        <v>224.2842707633972</v>
       </c>
       <c r="D15">
-        <v>0.3099851397523603</v>
+        <v>0.2781192466819015</v>
       </c>
       <c r="E15">
-        <v>0.04742099806780201</v>
+        <v>0.03583818074569605</v>
       </c>
       <c r="F15">
-        <v>0.001042114600808173</v>
+        <v>0.0003244683948607954</v>
       </c>
       <c r="G15">
-        <v>0.0001943407954915319</v>
+        <v>0.000112138251253816</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15">
         <v>29</v>
       </c>
       <c r="J15">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K15">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
         <v>8</v>
       </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>16</v>
-      </c>
       <c r="O15">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1133,22 +1133,22 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>1185.5</v>
+        <v>1284.5</v>
       </c>
       <c r="C16">
-        <v>228.8700572252274</v>
+        <v>214.0416301488876</v>
       </c>
       <c r="D16">
-        <v>0.322122845477532</v>
+        <v>0.2841012167497708</v>
       </c>
       <c r="E16">
-        <v>0.05253544775070719</v>
+        <v>0.03770817077350321</v>
       </c>
       <c r="F16">
-        <v>0.001201304510821608</v>
+        <v>0.0007474028283664535</v>
       </c>
       <c r="G16">
-        <v>0.0002163384620670674</v>
+        <v>0.0001462959342401119</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1157,10 +1157,10 @@
         <v>29</v>
       </c>
       <c r="J16">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K16">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -1169,10 +1169,10 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1183,22 +1183,22 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>1295</v>
+        <v>1230</v>
       </c>
       <c r="C17">
-        <v>218.6274166107178</v>
+        <v>228.2842707633972</v>
       </c>
       <c r="D17">
-        <v>0.2894241343588848</v>
+        <v>0.3099851397523603</v>
       </c>
       <c r="E17">
-        <v>0.03943520343502358</v>
+        <v>0.04742099806780201</v>
       </c>
       <c r="F17">
-        <v>0.0006220328539390207</v>
+        <v>0.001042114600808173</v>
       </c>
       <c r="G17">
-        <v>0.0001888910241153456</v>
+        <v>0.0001943407954915319</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -1207,22 +1207,22 @@
         <v>29</v>
       </c>
       <c r="J17">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="K17">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L17">
         <v>8</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1233,22 +1233,22 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>1295</v>
+        <v>1185.5</v>
       </c>
       <c r="C18">
-        <v>218.6274166107178</v>
+        <v>228.8700572252274</v>
       </c>
       <c r="D18">
-        <v>0.2894241343588848</v>
+        <v>0.322122845477532</v>
       </c>
       <c r="E18">
-        <v>0.03943520343502358</v>
+        <v>0.05253544775070719</v>
       </c>
       <c r="F18">
-        <v>0.0006220328539390207</v>
+        <v>0.001201304510821608</v>
       </c>
       <c r="G18">
-        <v>0.0001888910241153456</v>
+        <v>0.0002163384620670674</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -1257,7 +1257,7 @@
         <v>29</v>
       </c>
       <c r="J18">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="K18">
         <v>296</v>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1283,22 +1283,22 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1291.5</v>
+        <v>1295</v>
       </c>
       <c r="C19">
-        <v>218.0416301488876</v>
+        <v>218.6274166107178</v>
       </c>
       <c r="D19">
-        <v>0.2854286501302319</v>
+        <v>0.2894241343588848</v>
       </c>
       <c r="E19">
-        <v>0.03778297196411859</v>
+        <v>0.03943520343502358</v>
       </c>
       <c r="F19">
-        <v>0.0005907504462584559</v>
+        <v>0.0006220328539390207</v>
       </c>
       <c r="G19">
-        <v>0.0001624398992777312</v>
+        <v>0.0001888910241153456</v>
       </c>
       <c r="H19">
         <v>15</v>
@@ -1307,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="J19">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="K19">
         <v>296</v>
@@ -1319,10 +1319,10 @@
         <v>10</v>
       </c>
       <c r="N19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1333,43 +1333,43 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>1204</v>
+        <v>1295</v>
       </c>
       <c r="C20">
-        <v>231.1126978397369</v>
+        <v>218.6274166107178</v>
       </c>
       <c r="D20">
-        <v>0.3137454453913625</v>
+        <v>0.2894241343588848</v>
       </c>
       <c r="E20">
-        <v>0.04920012334269923</v>
+        <v>0.03943520343502358</v>
       </c>
       <c r="F20">
-        <v>0.0009118648131282217</v>
+        <v>0.0006220328539390207</v>
       </c>
       <c r="G20">
-        <v>0.0001820782154583543</v>
+        <v>0.0001888910241153456</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>29</v>
       </c>
       <c r="J20">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="K20">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
       <c r="N20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O20">
         <v>17</v>
@@ -1383,46 +1383,46 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>1232</v>
+        <v>1291.5</v>
       </c>
       <c r="C21">
-        <v>241.5979790687561</v>
+        <v>218.0416301488876</v>
       </c>
       <c r="D21">
-        <v>0.3205565091307443</v>
+        <v>0.2854286501302319</v>
       </c>
       <c r="E21">
-        <v>0.04705982556492391</v>
+        <v>0.03778297196411859</v>
       </c>
       <c r="F21">
-        <v>0.0009004170940641698</v>
+        <v>0.0005907504462584559</v>
       </c>
       <c r="G21">
-        <v>0.0002381792604682987</v>
+        <v>0.0001624398992777312</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>29</v>
       </c>
       <c r="J21">
-        <v>425</v>
+        <v>302</v>
       </c>
       <c r="K21">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M21">
         <v>10</v>
       </c>
       <c r="N21">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1433,46 +1433,46 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>1190.5</v>
+        <v>1204</v>
       </c>
       <c r="C22">
-        <v>239.012192606926</v>
+        <v>231.1126978397369</v>
       </c>
       <c r="D22">
-        <v>0.3132254016967772</v>
+        <v>0.3137454453913625</v>
       </c>
       <c r="E22">
-        <v>0.0458708072388107</v>
+        <v>0.04920012334269923</v>
       </c>
       <c r="F22">
-        <v>0.001223506725554721</v>
+        <v>0.0009118648131282217</v>
       </c>
       <c r="G22">
-        <v>0.0002255784183892029</v>
+        <v>0.0001820782154583543</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22">
         <v>29</v>
       </c>
       <c r="J22">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="K22">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1480,37 +1480,37 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>1213.5</v>
+        <v>1232</v>
       </c>
       <c r="C23">
-        <v>170.7279218435287</v>
+        <v>241.5979790687561</v>
       </c>
       <c r="D23">
-        <v>0.2261540711419696</v>
+        <v>0.3205565091307443</v>
       </c>
       <c r="E23">
-        <v>0.01999357454528929</v>
+        <v>0.04705982556492391</v>
       </c>
       <c r="F23">
-        <v>0.002332831854453569</v>
+        <v>0.0009004170940641698</v>
       </c>
       <c r="G23">
-        <v>0.0002584213984461078</v>
+        <v>0.0002381792604682987</v>
       </c>
       <c r="H23">
         <v>16</v>
       </c>
       <c r="I23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23">
-        <v>318</v>
+        <v>425</v>
       </c>
       <c r="K23">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="L23">
         <v>11</v>
@@ -1519,63 +1519,63 @@
         <v>10</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O23">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>1212.5</v>
+        <v>1190.5</v>
       </c>
       <c r="C24">
-        <v>169.5563489198685</v>
+        <v>239.012192606926</v>
       </c>
       <c r="D24">
-        <v>0.22561698421523</v>
+        <v>0.3132254016967772</v>
       </c>
       <c r="E24">
-        <v>0.02060606585735362</v>
+        <v>0.0458708072388107</v>
       </c>
       <c r="F24">
-        <v>0.001862737269426642</v>
+        <v>0.001223506725554721</v>
       </c>
       <c r="G24">
-        <v>0.0001845273895631537</v>
+        <v>0.0002255784183892029</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="K24">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="L24">
         <v>11</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O24">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1583,46 +1583,46 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>1144.5</v>
+        <v>1213.5</v>
       </c>
       <c r="C25">
-        <v>168.3847759962082</v>
+        <v>170.7279218435287</v>
       </c>
       <c r="D25">
-        <v>0.2315949492644538</v>
+        <v>0.2261540711419696</v>
       </c>
       <c r="E25">
-        <v>0.02208775237032914</v>
+        <v>0.01999357454528929</v>
       </c>
       <c r="F25">
-        <v>0.002478129882589811</v>
+        <v>0.002332831854453569</v>
       </c>
       <c r="G25">
-        <v>0.0002656220038706197</v>
+        <v>0.0002584213984461078</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J25">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="K25">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O25">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1633,40 +1633,40 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>1090</v>
+        <v>1212.5</v>
       </c>
       <c r="C26">
-        <v>170.1421353816986</v>
+        <v>169.5563489198685</v>
       </c>
       <c r="D26">
-        <v>0.2317901425587984</v>
+        <v>0.22561698421523</v>
       </c>
       <c r="E26">
-        <v>0.02084951169056421</v>
+        <v>0.02060606585735362</v>
       </c>
       <c r="F26">
-        <v>0.002761024336887318</v>
+        <v>0.001862737269426642</v>
       </c>
       <c r="G26">
-        <v>0.0003291909572498724</v>
+        <v>0.0001845273895631537</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26">
         <v>30</v>
       </c>
       <c r="J26">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="K26">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L26">
         <v>11</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -1683,22 +1683,22 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>1154.5</v>
+        <v>1144.5</v>
       </c>
       <c r="C27">
         <v>168.3847759962082</v>
       </c>
       <c r="D27">
-        <v>0.230255906314589</v>
+        <v>0.2315949492644538</v>
       </c>
       <c r="E27">
-        <v>0.02154719730311342</v>
+        <v>0.02208775237032914</v>
       </c>
       <c r="F27">
-        <v>0.002390050071148501</v>
+        <v>0.002478129882589811</v>
       </c>
       <c r="G27">
-        <v>0.0002412486270054812</v>
+        <v>0.0002656220038706197</v>
       </c>
       <c r="H27">
         <v>16</v>
@@ -1707,10 +1707,10 @@
         <v>30</v>
       </c>
       <c r="J27">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K27">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L27">
         <v>14</v>
@@ -1733,40 +1733,40 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>1218.5</v>
+        <v>1090</v>
       </c>
       <c r="C28">
-        <v>169.5563489198685</v>
+        <v>170.1421353816986</v>
       </c>
       <c r="D28">
-        <v>0.2253876802359859</v>
+        <v>0.2317901425587984</v>
       </c>
       <c r="E28">
-        <v>0.0203004078690009</v>
+        <v>0.02084951169056421</v>
       </c>
       <c r="F28">
-        <v>0.001906201932565114</v>
+        <v>0.002761024336887318</v>
       </c>
       <c r="G28">
-        <v>0.0001875443922885581</v>
+        <v>0.0003291909572498724</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>30</v>
       </c>
       <c r="J28">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="K28">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="L28">
         <v>11</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>20</v>
@@ -1783,22 +1783,22 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>1160</v>
+        <v>1154.5</v>
       </c>
       <c r="C29">
-        <v>168.9705624580383</v>
+        <v>168.3847759962082</v>
       </c>
       <c r="D29">
-        <v>0.2296114270799164</v>
+        <v>0.230255906314589</v>
       </c>
       <c r="E29">
-        <v>0.02195687163148182</v>
+        <v>0.02154719730311342</v>
       </c>
       <c r="F29">
-        <v>0.002105472175192458</v>
+        <v>0.002390050071148501</v>
       </c>
       <c r="G29">
-        <v>0.0001917867058607567</v>
+        <v>0.0002412486270054812</v>
       </c>
       <c r="H29">
         <v>16</v>
@@ -1807,22 +1807,22 @@
         <v>30</v>
       </c>
       <c r="J29">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="K29">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M29">
         <v>14</v>
       </c>
       <c r="N29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1160</v>
+        <v>1218.5</v>
       </c>
       <c r="C30">
-        <v>168.9705624580383</v>
+        <v>169.5563489198685</v>
       </c>
       <c r="D30">
-        <v>0.2296114270799164</v>
+        <v>0.2253876802359859</v>
       </c>
       <c r="E30">
-        <v>0.02195687163148182</v>
+        <v>0.0203004078690009</v>
       </c>
       <c r="F30">
-        <v>0.002105472175192458</v>
+        <v>0.001906201932565114</v>
       </c>
       <c r="G30">
-        <v>0.0001917867058607567</v>
+        <v>0.0001875443922885581</v>
       </c>
       <c r="H30">
         <v>16</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="J30">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K30">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="L30">
         <v>11</v>
@@ -1869,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="N30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>1188.5</v>
+        <v>1160</v>
       </c>
       <c r="C32">
-        <v>170.7279218435287</v>
+        <v>168.9705624580383</v>
       </c>
       <c r="D32">
-        <v>0.2227101521460478</v>
+        <v>0.2296114270799164</v>
       </c>
       <c r="E32">
-        <v>0.01781249498804035</v>
+        <v>0.02195687163148182</v>
       </c>
       <c r="F32">
-        <v>0.002331108172109765</v>
+        <v>0.002105472175192458</v>
       </c>
       <c r="G32">
-        <v>0.0001548423204041307</v>
+        <v>0.0001917867058607567</v>
       </c>
       <c r="H32">
         <v>16</v>
@@ -1957,22 +1957,22 @@
         <v>30</v>
       </c>
       <c r="J32">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="K32">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -1983,46 +1983,46 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>1133</v>
+        <v>1160</v>
       </c>
       <c r="C33">
-        <v>170.1421353816986</v>
+        <v>168.9705624580383</v>
       </c>
       <c r="D33">
-        <v>0.2280841193779284</v>
+        <v>0.2296114270799164</v>
       </c>
       <c r="E33">
-        <v>0.02083055858511512</v>
+        <v>0.02195687163148182</v>
       </c>
       <c r="F33">
-        <v>0.002097305450208299</v>
+        <v>0.002105472175192458</v>
       </c>
       <c r="G33">
-        <v>0.0003636481608667201</v>
+        <v>0.0001917867058607567</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="K33">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>16</v>
+      </c>
+      <c r="O33">
         <v>13</v>
-      </c>
-      <c r="N33">
-        <v>18</v>
-      </c>
-      <c r="O33">
-        <v>7</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2033,46 +2033,46 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>1092.5</v>
+        <v>1188.5</v>
       </c>
       <c r="C34">
-        <v>169.5563489198685</v>
+        <v>170.7279218435287</v>
       </c>
       <c r="D34">
-        <v>0.2336562297068762</v>
+        <v>0.2227101521460478</v>
       </c>
       <c r="E34">
-        <v>0.02252828828665792</v>
+        <v>0.01781249498804035</v>
       </c>
       <c r="F34">
-        <v>0.002500950825712378</v>
+        <v>0.002331108172109765</v>
       </c>
       <c r="G34">
-        <v>0.0002712131486147744</v>
+        <v>0.0001548423204041307</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <v>30</v>
       </c>
       <c r="J34">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="K34">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2083,46 +2083,46 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>1213.5</v>
+        <v>1133</v>
       </c>
       <c r="C35">
-        <v>170.7279218435287</v>
+        <v>170.1421353816986</v>
       </c>
       <c r="D35">
-        <v>0.2261540711419696</v>
+        <v>0.2280841193779284</v>
       </c>
       <c r="E35">
-        <v>0.01999357454528929</v>
+        <v>0.02083055858511512</v>
       </c>
       <c r="F35">
-        <v>0.002332831854453569</v>
+        <v>0.002097305450208299</v>
       </c>
       <c r="G35">
-        <v>0.0002584213984461078</v>
+        <v>0.0003636481608667201</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35">
         <v>31</v>
       </c>
       <c r="J35">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="K35">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2130,99 +2130,99 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1404</v>
+        <v>1092.5</v>
       </c>
       <c r="C36">
-        <v>256.6274166107178</v>
+        <v>169.5563489198685</v>
       </c>
       <c r="D36">
-        <v>0.2614844555308343</v>
+        <v>0.2336562297068762</v>
       </c>
       <c r="E36">
-        <v>0.0282814991191935</v>
+        <v>0.02252828828665792</v>
       </c>
       <c r="F36">
-        <v>1.952367567180077E-05</v>
+        <v>0.002500950825712378</v>
       </c>
       <c r="G36">
-        <v>5.350324677230344E-07</v>
+        <v>0.0002712131486147744</v>
       </c>
       <c r="H36">
         <v>14</v>
       </c>
       <c r="I36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J36">
-        <v>502</v>
+        <v>277</v>
       </c>
       <c r="K36">
-        <v>432</v>
+        <v>275</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O36">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>1348.5</v>
+        <v>1213.5</v>
       </c>
       <c r="C37">
-        <v>252.8700572252274</v>
+        <v>170.7279218435287</v>
       </c>
       <c r="D37">
-        <v>0.2747835144640579</v>
+        <v>0.2261540711419696</v>
       </c>
       <c r="E37">
-        <v>0.0331180734192149</v>
+        <v>0.01999357454528929</v>
       </c>
       <c r="F37">
-        <v>2.406481008772957E-05</v>
+        <v>0.002332831854453569</v>
       </c>
       <c r="G37">
-        <v>1.451910998548833E-06</v>
+        <v>0.0002584213984461078</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J37">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="K37">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O37">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2233,22 +2233,22 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>1339.5</v>
+        <v>1404</v>
       </c>
       <c r="C38">
-        <v>246.8700572252274</v>
+        <v>256.6274166107178</v>
       </c>
       <c r="D38">
-        <v>0.2665179706332876</v>
+        <v>0.2614844555308343</v>
       </c>
       <c r="E38">
-        <v>0.03090246395580048</v>
+        <v>0.0282814991191935</v>
       </c>
       <c r="F38">
-        <v>0.0001311000272998909</v>
+        <v>1.952367567180077E-05</v>
       </c>
       <c r="G38">
-        <v>2.306406024560316E-05</v>
+        <v>5.350324677230344E-07</v>
       </c>
       <c r="H38">
         <v>14</v>
@@ -2257,22 +2257,22 @@
         <v>29</v>
       </c>
       <c r="J38">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="K38">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N38">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="O38">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -2283,49 +2283,49 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>1339</v>
+        <v>1348.5</v>
       </c>
       <c r="C39">
-        <v>250.2842707633972</v>
+        <v>252.8700572252274</v>
       </c>
       <c r="D39">
-        <v>0.2676627559751474</v>
+        <v>0.2747835144640579</v>
       </c>
       <c r="E39">
-        <v>0.03083075934484384</v>
+        <v>0.0331180734192149</v>
       </c>
       <c r="F39">
-        <v>6.320096703357905E-05</v>
+        <v>2.406481008772957E-05</v>
       </c>
       <c r="G39">
-        <v>6.262402033972826E-06</v>
+        <v>1.451910998548833E-06</v>
       </c>
       <c r="H39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39">
         <v>29</v>
       </c>
       <c r="J39">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="K39">
-        <v>497</v>
+        <v>356</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N39">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2333,46 +2333,46 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>1245</v>
+        <v>1339.5</v>
       </c>
       <c r="C40">
-        <v>249.7989895343781</v>
+        <v>246.8700572252274</v>
       </c>
       <c r="D40">
-        <v>0.2947799302167552</v>
+        <v>0.2665179706332876</v>
       </c>
       <c r="E40">
-        <v>0.03642320421737369</v>
+        <v>0.03090246395580048</v>
       </c>
       <c r="F40">
-        <v>0.0001106724383741529</v>
+        <v>0.0001311000272998909</v>
       </c>
       <c r="G40">
-        <v>1.448570190927915E-05</v>
+        <v>2.306406024560316E-05</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <v>29</v>
       </c>
       <c r="J40">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K40">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M40">
         <v>9</v>
       </c>
       <c r="N40">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -2383,46 +2383,46 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>1321.5</v>
+        <v>1339</v>
       </c>
       <c r="C41">
-        <v>246.8700572252274</v>
+        <v>250.2842707633972</v>
       </c>
       <c r="D41">
-        <v>0.2666950854647266</v>
+        <v>0.2676627559751474</v>
       </c>
       <c r="E41">
-        <v>0.03104146214466477</v>
+        <v>0.03083075934484384</v>
       </c>
       <c r="F41">
-        <v>2.312452456028952E-05</v>
+        <v>6.320096703357905E-05</v>
       </c>
       <c r="G41">
-        <v>1.096907146736024E-05</v>
+        <v>6.262402033972826E-06</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41">
         <v>29</v>
       </c>
       <c r="J41">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="K41">
-        <v>372</v>
+        <v>497</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N41">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O41">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -2433,22 +2433,22 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>1295.5</v>
+        <v>1245</v>
       </c>
       <c r="C42">
-        <v>250.0416301488876</v>
+        <v>249.7989895343781</v>
       </c>
       <c r="D42">
-        <v>0.2772572593156679</v>
+        <v>0.2947799302167552</v>
       </c>
       <c r="E42">
-        <v>0.03328454026703401</v>
+        <v>0.03642320421737369</v>
       </c>
       <c r="F42">
-        <v>2.511500375541189E-05</v>
+        <v>0.0001106724383741529</v>
       </c>
       <c r="G42">
-        <v>5.125756519010825E-06</v>
+        <v>1.448570190927915E-05</v>
       </c>
       <c r="H42">
         <v>13</v>
@@ -2457,22 +2457,22 @@
         <v>29</v>
       </c>
       <c r="J42">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="K42">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="L42">
         <v>24</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N42">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -2483,46 +2483,46 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>1295.5</v>
+        <v>1321.5</v>
       </c>
       <c r="C43">
-        <v>250.0416301488876</v>
+        <v>246.8700572252274</v>
       </c>
       <c r="D43">
-        <v>0.2772572593156679</v>
+        <v>0.2666950854647266</v>
       </c>
       <c r="E43">
-        <v>0.03328454026703401</v>
+        <v>0.03104146214466477</v>
       </c>
       <c r="F43">
-        <v>2.511500375541189E-05</v>
+        <v>2.312452456028952E-05</v>
       </c>
       <c r="G43">
-        <v>5.125756519010825E-06</v>
+        <v>1.096907146736024E-05</v>
       </c>
       <c r="H43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43">
         <v>29</v>
       </c>
       <c r="J43">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K43">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N43">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -2533,49 +2533,49 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>1324.5</v>
+        <v>1295.5</v>
       </c>
       <c r="C44">
-        <v>248.0416301488876</v>
+        <v>250.0416301488876</v>
       </c>
       <c r="D44">
-        <v>0.2734423930519729</v>
+        <v>0.2772572593156679</v>
       </c>
       <c r="E44">
-        <v>0.03196227579448455</v>
+        <v>0.03328454026703401</v>
       </c>
       <c r="F44">
-        <v>9.003779156558958E-05</v>
+        <v>2.511500375541189E-05</v>
       </c>
       <c r="G44">
-        <v>7.832950767142281E-06</v>
+        <v>5.125756519010825E-06</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I44">
         <v>29</v>
       </c>
       <c r="J44">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="K44">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="L44">
         <v>24</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O44">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2583,22 +2583,22 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>1313</v>
+        <v>1295.5</v>
       </c>
       <c r="C45">
-        <v>249.1126978397369</v>
+        <v>250.0416301488876</v>
       </c>
       <c r="D45">
-        <v>0.269368489532593</v>
+        <v>0.2772572593156679</v>
       </c>
       <c r="E45">
-        <v>0.03188496321942667</v>
+        <v>0.03328454026703401</v>
       </c>
       <c r="F45">
-        <v>9.565665411942369E-05</v>
+        <v>2.511500375541189E-05</v>
       </c>
       <c r="G45">
-        <v>3.158664117819992E-05</v>
+        <v>5.125756519010825E-06</v>
       </c>
       <c r="H45">
         <v>13</v>
@@ -2607,22 +2607,22 @@
         <v>29</v>
       </c>
       <c r="J45">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="K45">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -2633,22 +2633,22 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>1348.5</v>
+        <v>1324.5</v>
       </c>
       <c r="C46">
-        <v>252.8700572252274</v>
+        <v>248.0416301488876</v>
       </c>
       <c r="D46">
-        <v>0.2747835144640579</v>
+        <v>0.2734423930519729</v>
       </c>
       <c r="E46">
-        <v>0.0331180734192149</v>
+        <v>0.03196227579448455</v>
       </c>
       <c r="F46">
-        <v>2.406481008772957E-05</v>
+        <v>9.003779156558958E-05</v>
       </c>
       <c r="G46">
-        <v>1.451910998548833E-06</v>
+        <v>7.832950767142281E-06</v>
       </c>
       <c r="H46">
         <v>14</v>
@@ -2657,22 +2657,22 @@
         <v>29</v>
       </c>
       <c r="J46">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="K46">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="O46">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2683,46 +2683,46 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="C47">
-        <v>246.2842707633972</v>
+        <v>249.1126978397369</v>
       </c>
       <c r="D47">
-        <v>0.2714719845870491</v>
+        <v>0.269368489532593</v>
       </c>
       <c r="E47">
-        <v>0.03250141920129111</v>
+        <v>0.03188496321942667</v>
       </c>
       <c r="F47">
-        <v>0.0001535383947166936</v>
+        <v>9.565665411942369E-05</v>
       </c>
       <c r="G47">
-        <v>2.865058719179229E-05</v>
+        <v>3.158664117819992E-05</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I47">
         <v>29</v>
       </c>
       <c r="J47">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="K47">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L47">
         <v>25</v>
       </c>
       <c r="M47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N47">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O47">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2733,96 +2733,96 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>1295.5</v>
+        <v>1348.5</v>
       </c>
       <c r="C48">
-        <v>250.0416301488876</v>
+        <v>252.8700572252274</v>
       </c>
       <c r="D48">
-        <v>0.2772572593156679</v>
+        <v>0.2747835144640579</v>
       </c>
       <c r="E48">
-        <v>0.03328454026703401</v>
+        <v>0.0331180734192149</v>
       </c>
       <c r="F48">
-        <v>2.511500375541189E-05</v>
+        <v>2.406481008772957E-05</v>
       </c>
       <c r="G48">
-        <v>5.125756519010825E-06</v>
+        <v>1.451910998548833E-06</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48">
         <v>29</v>
       </c>
       <c r="J48">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="K48">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N48">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>1473</v>
+        <v>1326</v>
       </c>
       <c r="C49">
-        <v>208.6274166107178</v>
+        <v>246.2842707633972</v>
       </c>
       <c r="D49">
-        <v>0.2258247644896991</v>
+        <v>0.2714719845870491</v>
       </c>
       <c r="E49">
-        <v>0.01968170968536194</v>
+        <v>0.03250141920129111</v>
       </c>
       <c r="F49">
-        <v>0.0001365758666216181</v>
+        <v>0.0001535383947166936</v>
       </c>
       <c r="G49">
-        <v>0.0001108255335230843</v>
+        <v>2.865058719179229E-05</v>
       </c>
       <c r="H49">
         <v>14</v>
       </c>
       <c r="I49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J49">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="K49">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N49">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O49">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2830,49 +2830,49 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>1488</v>
+        <v>1295.5</v>
       </c>
       <c r="C50">
-        <v>207.7989895343781</v>
+        <v>250.0416301488876</v>
       </c>
       <c r="D50">
-        <v>0.2258976576779597</v>
+        <v>0.2772572593156679</v>
       </c>
       <c r="E50">
-        <v>0.02013836874505266</v>
+        <v>0.03328454026703401</v>
       </c>
       <c r="F50">
-        <v>0.0001850192276944513</v>
+        <v>2.511500375541189E-05</v>
       </c>
       <c r="G50">
-        <v>9.919460939173298E-05</v>
+        <v>5.125756519010825E-06</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="K50">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="L50">
         <v>24</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O50">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -2883,22 +2883,22 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>1515.5</v>
+        <v>1473</v>
       </c>
       <c r="C51">
-        <v>185.2132030725479</v>
+        <v>208.6274166107178</v>
       </c>
       <c r="D51">
-        <v>0.2121321772082988</v>
+        <v>0.2258247644896991</v>
       </c>
       <c r="E51">
-        <v>0.01725883523977168</v>
+        <v>0.01968170968536194</v>
       </c>
       <c r="F51">
-        <v>0.0001541214862720741</v>
+        <v>0.0001365758666216181</v>
       </c>
       <c r="G51">
-        <v>2.818853119568781E-05</v>
+        <v>0.0001108255335230843</v>
       </c>
       <c r="H51">
         <v>14</v>
@@ -2907,22 +2907,22 @@
         <v>30</v>
       </c>
       <c r="J51">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="K51">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="L51">
         <v>24</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -2933,22 +2933,22 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="C52">
-        <v>204.6274166107178</v>
+        <v>207.7989895343781</v>
       </c>
       <c r="D52">
-        <v>0.2231807291119888</v>
+        <v>0.2258976576779597</v>
       </c>
       <c r="E52">
-        <v>0.01935738857662294</v>
+        <v>0.02013836874505266</v>
       </c>
       <c r="F52">
-        <v>0.0002490381297692543</v>
+        <v>0.0001850192276944513</v>
       </c>
       <c r="G52">
-        <v>8.949185753991438E-05</v>
+        <v>9.919460939173298E-05</v>
       </c>
       <c r="H52">
         <v>14</v>
@@ -2957,22 +2957,22 @@
         <v>30</v>
       </c>
       <c r="J52">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="K52">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="L52">
         <v>24</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O52">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -2983,34 +2983,34 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>1493.5</v>
+        <v>1515.5</v>
       </c>
       <c r="C53">
-        <v>202.3847759962082</v>
+        <v>185.2132030725479</v>
       </c>
       <c r="D53">
-        <v>0.2292351444614306</v>
+        <v>0.2121321772082988</v>
       </c>
       <c r="E53">
-        <v>0.02159461434677251</v>
+        <v>0.01725883523977168</v>
       </c>
       <c r="F53">
-        <v>0.0002065431814901454</v>
+        <v>0.0001541214862720741</v>
       </c>
       <c r="G53">
-        <v>0.0001305475753191525</v>
+        <v>2.818853119568781E-05</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53">
         <v>30</v>
       </c>
       <c r="J53">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="K53">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="L53">
         <v>24</v>
@@ -3019,10 +3019,10 @@
         <v>30</v>
       </c>
       <c r="N53">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O53">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3033,22 +3033,22 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>1485.5</v>
+        <v>1469</v>
       </c>
       <c r="C54">
-        <v>209.2132030725479</v>
+        <v>204.6274166107178</v>
       </c>
       <c r="D54">
-        <v>0.2277351321201853</v>
+        <v>0.2231807291119888</v>
       </c>
       <c r="E54">
-        <v>0.02048077909233595</v>
+        <v>0.01935738857662294</v>
       </c>
       <c r="F54">
-        <v>0.0001900150325322867</v>
+        <v>0.0002490381297692543</v>
       </c>
       <c r="G54">
-        <v>0.000120206628210323</v>
+        <v>8.949185753991438E-05</v>
       </c>
       <c r="H54">
         <v>14</v>
@@ -3057,22 +3057,22 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K54">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="L54">
         <v>24</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N54">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O54">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3083,46 +3083,46 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>1485.5</v>
+        <v>1493.5</v>
       </c>
       <c r="C55">
-        <v>209.2132030725479</v>
+        <v>202.3847759962082</v>
       </c>
       <c r="D55">
-        <v>0.2277351321201853</v>
+        <v>0.2292351444614306</v>
       </c>
       <c r="E55">
-        <v>0.02048077909233595</v>
+        <v>0.02159461434677251</v>
       </c>
       <c r="F55">
-        <v>0.0001900150325322867</v>
+        <v>0.0002065431814901454</v>
       </c>
       <c r="G55">
-        <v>0.000120206628210323</v>
+        <v>0.0001305475753191525</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55">
         <v>30</v>
       </c>
       <c r="J55">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K55">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="L55">
         <v>24</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O55">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -3133,22 +3133,22 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>1459</v>
+        <v>1485.5</v>
       </c>
       <c r="C56">
-        <v>207.4558436870575</v>
+        <v>209.2132030725479</v>
       </c>
       <c r="D56">
-        <v>0.222309162135081</v>
+        <v>0.2277351321201853</v>
       </c>
       <c r="E56">
-        <v>0.01894098738328715</v>
+        <v>0.02048077909233595</v>
       </c>
       <c r="F56">
-        <v>0.0001516295960522514</v>
+        <v>0.0001900150325322867</v>
       </c>
       <c r="G56">
-        <v>9.157210554017084E-05</v>
+        <v>0.000120206628210323</v>
       </c>
       <c r="H56">
         <v>14</v>
@@ -3157,22 +3157,22 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="K56">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L56">
         <v>24</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N56">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -3183,46 +3183,46 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>1379</v>
+        <v>1485.5</v>
       </c>
       <c r="C57">
-        <v>201.4558436870575</v>
+        <v>209.2132030725479</v>
       </c>
       <c r="D57">
-        <v>0.2356131578381627</v>
+        <v>0.2277351321201853</v>
       </c>
       <c r="E57">
-        <v>0.02459874868265341</v>
+        <v>0.02048077909233595</v>
       </c>
       <c r="F57">
-        <v>0.0002980541810834597</v>
+        <v>0.0001900150325322867</v>
       </c>
       <c r="G57">
-        <v>0.0001494077427460149</v>
+        <v>0.000120206628210323</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57">
         <v>30</v>
       </c>
       <c r="J57">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="K57">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M57">
         <v>19</v>
       </c>
       <c r="N57">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -3283,46 +3283,46 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>1534.5</v>
+        <v>1379</v>
       </c>
       <c r="C59">
-        <v>208.3847759962082</v>
+        <v>201.4558436870575</v>
       </c>
       <c r="D59">
-        <v>0.2222226891735434</v>
+        <v>0.2356131578381627</v>
       </c>
       <c r="E59">
-        <v>0.01909201293657467</v>
+        <v>0.02459874868265341</v>
       </c>
       <c r="F59">
-        <v>0.0001533378947476812</v>
+        <v>0.0002980541810834597</v>
       </c>
       <c r="G59">
-        <v>6.603557702288512E-05</v>
+        <v>0.0001494077427460149</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59">
         <v>30</v>
       </c>
       <c r="J59">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="K59">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N59">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O59">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -3333,22 +3333,22 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>1393.5</v>
+        <v>1459</v>
       </c>
       <c r="C60">
-        <v>199.2132030725479</v>
+        <v>207.4558436870575</v>
       </c>
       <c r="D60">
-        <v>0.2267599758950642</v>
+        <v>0.222309162135081</v>
       </c>
       <c r="E60">
-        <v>0.0218307484503141</v>
+        <v>0.01894098738328715</v>
       </c>
       <c r="F60">
-        <v>0.0001671084064894423</v>
+        <v>0.0001516295960522514</v>
       </c>
       <c r="G60">
-        <v>9.445263323400189E-05</v>
+        <v>9.157210554017084E-05</v>
       </c>
       <c r="H60">
         <v>14</v>
@@ -3357,22 +3357,22 @@
         <v>30</v>
       </c>
       <c r="J60">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="K60">
-        <v>436</v>
+        <v>536</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N60">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O60">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -3383,22 +3383,22 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>1461.5</v>
+        <v>1534.5</v>
       </c>
       <c r="C61">
-        <v>205.2132030725479</v>
+        <v>208.3847759962082</v>
       </c>
       <c r="D61">
-        <v>0.2213718455854032</v>
+        <v>0.2222226891735434</v>
       </c>
       <c r="E61">
-        <v>0.01918782020406035</v>
+        <v>0.01909201293657467</v>
       </c>
       <c r="F61">
-        <v>0.0001976564282432938</v>
+        <v>0.0001533378947476812</v>
       </c>
       <c r="G61">
-        <v>7.788145498928175E-05</v>
+        <v>6.603557702288512E-05</v>
       </c>
       <c r="H61">
         <v>14</v>
@@ -3407,22 +3407,22 @@
         <v>30</v>
       </c>
       <c r="J61">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="K61">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O61">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -3433,22 +3433,22 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>1461.5</v>
+        <v>1393.5</v>
       </c>
       <c r="C62">
-        <v>205.2132030725479</v>
+        <v>199.2132030725479</v>
       </c>
       <c r="D62">
-        <v>0.2213718455854032</v>
+        <v>0.2267599758950642</v>
       </c>
       <c r="E62">
-        <v>0.01918782020406035</v>
+        <v>0.0218307484503141</v>
       </c>
       <c r="F62">
-        <v>0.0001976564282432938</v>
+        <v>0.0001671084064894423</v>
       </c>
       <c r="G62">
-        <v>7.788145498928175E-05</v>
+        <v>9.445263323400189E-05</v>
       </c>
       <c r="H62">
         <v>14</v>
@@ -3457,22 +3457,22 @@
         <v>30</v>
       </c>
       <c r="J62">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="K62">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -3483,46 +3483,46 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>1472</v>
+        <v>1461.5</v>
       </c>
       <c r="C63">
-        <v>203.4558436870575</v>
+        <v>205.2132030725479</v>
       </c>
       <c r="D63">
-        <v>0.2234767350321144</v>
+        <v>0.2213718455854032</v>
       </c>
       <c r="E63">
-        <v>0.01950837780535899</v>
+        <v>0.01918782020406035</v>
       </c>
       <c r="F63">
-        <v>0.0001187790275318561</v>
+        <v>0.0001976564282432938</v>
       </c>
       <c r="G63">
-        <v>8.594437961497723E-05</v>
+        <v>7.788145498928175E-05</v>
       </c>
       <c r="H63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63">
         <v>30</v>
       </c>
       <c r="J63">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="K63">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M63">
+        <v>22</v>
+      </c>
+      <c r="N63">
+        <v>31</v>
+      </c>
+      <c r="O63">
         <v>20</v>
-      </c>
-      <c r="N63">
-        <v>40</v>
-      </c>
-      <c r="O63">
-        <v>16</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -3533,46 +3533,46 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <v>1461</v>
+        <v>1461.5</v>
       </c>
       <c r="C64">
-        <v>204.6274166107178</v>
+        <v>205.2132030725479</v>
       </c>
       <c r="D64">
-        <v>0.2255773891349777</v>
+        <v>0.2213718455854032</v>
       </c>
       <c r="E64">
-        <v>0.02003872688031701</v>
+        <v>0.01918782020406035</v>
       </c>
       <c r="F64">
-        <v>0.0001714268777945991</v>
+        <v>0.0001976564282432938</v>
       </c>
       <c r="G64">
-        <v>0.0001198814897666551</v>
+        <v>7.788145498928175E-05</v>
       </c>
       <c r="H64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64">
         <v>30</v>
       </c>
       <c r="J64">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="K64">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M64">
         <v>22</v>
       </c>
       <c r="N64">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3583,22 +3583,22 @@
         <v>5</v>
       </c>
       <c r="B65">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="C65">
-        <v>204.6274166107178</v>
+        <v>203.4558436870575</v>
       </c>
       <c r="D65">
-        <v>0.2255773891349777</v>
+        <v>0.2234767350321144</v>
       </c>
       <c r="E65">
-        <v>0.02003872688031701</v>
+        <v>0.01950837780535899</v>
       </c>
       <c r="F65">
-        <v>0.0001714268777945991</v>
+        <v>0.0001187790275318561</v>
       </c>
       <c r="G65">
-        <v>0.0001198814897666551</v>
+        <v>8.594437961497723E-05</v>
       </c>
       <c r="H65">
         <v>13</v>
@@ -3607,22 +3607,22 @@
         <v>30</v>
       </c>
       <c r="J65">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="K65">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="L65">
         <v>24</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O65">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -3630,49 +3630,49 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>940.5</v>
+        <v>1461</v>
       </c>
       <c r="C66">
-        <v>185.899494767189</v>
+        <v>204.6274166107178</v>
       </c>
       <c r="D66">
-        <v>0.3631668471280636</v>
+        <v>0.2255773891349777</v>
       </c>
       <c r="E66">
-        <v>0.07704831132325528</v>
+        <v>0.02003872688031701</v>
       </c>
       <c r="F66">
-        <v>0.01542154737301889</v>
+        <v>0.0001714268777945991</v>
       </c>
       <c r="G66">
-        <v>0.004194822082236939</v>
+        <v>0.0001198814897666551</v>
       </c>
       <c r="H66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I66">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J66">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K66">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="O66">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -3680,49 +3680,49 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>1070</v>
+        <v>1461</v>
       </c>
       <c r="C67">
-        <v>190.9705624580383</v>
+        <v>204.6274166107178</v>
       </c>
       <c r="D67">
-        <v>0.3316056985119887</v>
+        <v>0.2255773891349777</v>
       </c>
       <c r="E67">
-        <v>0.06251678622291927</v>
+        <v>0.02003872688031701</v>
       </c>
       <c r="F67">
-        <v>0.008513965027477701</v>
+        <v>0.0001714268777945991</v>
       </c>
       <c r="G67">
-        <v>0.002238487660516325</v>
+        <v>0.0001198814897666551</v>
       </c>
       <c r="H67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I67">
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <v>456</v>
+      </c>
+      <c r="K67">
+        <v>548</v>
+      </c>
+      <c r="L67">
         <v>24</v>
       </c>
-      <c r="J67">
-        <v>478</v>
-      </c>
-      <c r="K67">
-        <v>331</v>
-      </c>
-      <c r="L67">
-        <v>8</v>
-      </c>
       <c r="M67">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="O67">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -3733,22 +3733,22 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>927</v>
+        <v>940.5</v>
       </c>
       <c r="C68">
-        <v>193.3137083053589</v>
+        <v>185.899494767189</v>
       </c>
       <c r="D68">
-        <v>0.372667168560425</v>
+        <v>0.3631668471280636</v>
       </c>
       <c r="E68">
-        <v>0.08048135465068629</v>
+        <v>0.07704831132325528</v>
       </c>
       <c r="F68">
-        <v>0.0169414522406761</v>
+        <v>0.01542154737301889</v>
       </c>
       <c r="G68">
-        <v>0.004495823666823329</v>
+        <v>0.004194822082236939</v>
       </c>
       <c r="H68">
         <v>14</v>
@@ -3757,10 +3757,10 @@
         <v>23</v>
       </c>
       <c r="J68">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="K68">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L68">
         <v>8</v>
@@ -3772,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="O68">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -3783,46 +3783,46 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>901</v>
+        <v>1070</v>
       </c>
       <c r="C69">
-        <v>190.1421353816986</v>
+        <v>190.9705624580383</v>
       </c>
       <c r="D69">
-        <v>0.4034000032279723</v>
+        <v>0.3316056985119887</v>
       </c>
       <c r="E69">
-        <v>0.1000809905792472</v>
+        <v>0.06251678622291927</v>
       </c>
       <c r="F69">
-        <v>0.02081276328926008</v>
+        <v>0.008513965027477701</v>
       </c>
       <c r="G69">
-        <v>0.006425923885109786</v>
+        <v>0.002238487660516325</v>
       </c>
       <c r="H69">
         <v>14</v>
       </c>
       <c r="I69">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J69">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="K69">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -3833,22 +3833,22 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C70">
-        <v>185.3137083053589</v>
+        <v>193.3137083053589</v>
       </c>
       <c r="D70">
-        <v>0.3718332881785396</v>
+        <v>0.372667168560425</v>
       </c>
       <c r="E70">
-        <v>0.08220162224225136</v>
+        <v>0.08048135465068629</v>
       </c>
       <c r="F70">
-        <v>0.01745588942313018</v>
+        <v>0.0169414522406761</v>
       </c>
       <c r="G70">
-        <v>0.005039988802215243</v>
+        <v>0.004495823666823329</v>
       </c>
       <c r="H70">
         <v>14</v>
@@ -3857,22 +3857,22 @@
         <v>23</v>
       </c>
       <c r="J70">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K70">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M70">
         <v>4</v>
       </c>
       <c r="N70">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -3883,46 +3883,46 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>900.5</v>
+        <v>901</v>
       </c>
       <c r="C71">
-        <v>192.7279218435287</v>
+        <v>190.1421353816986</v>
       </c>
       <c r="D71">
-        <v>0.3924956702093441</v>
+        <v>0.4034000032279723</v>
       </c>
       <c r="E71">
-        <v>0.09220220430228455</v>
+        <v>0.1000809905792472</v>
       </c>
       <c r="F71">
-        <v>0.01668396629178764</v>
+        <v>0.02081276328926008</v>
       </c>
       <c r="G71">
-        <v>0.003934295158282364</v>
+        <v>0.006425923885109786</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71">
         <v>23</v>
       </c>
       <c r="J71">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K71">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -3933,46 +3933,46 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>945.5</v>
+        <v>921</v>
       </c>
       <c r="C72">
-        <v>184.7279218435287</v>
+        <v>185.3137083053589</v>
       </c>
       <c r="D72">
-        <v>0.3631937093477277</v>
+        <v>0.3718332881785396</v>
       </c>
       <c r="E72">
-        <v>0.07920121346924003</v>
+        <v>0.08220162224225136</v>
       </c>
       <c r="F72">
-        <v>0.01439761274320098</v>
+        <v>0.01745588942313018</v>
       </c>
       <c r="G72">
-        <v>0.00408440323787797</v>
+        <v>0.005039988802215243</v>
       </c>
       <c r="H72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I72">
         <v>23</v>
       </c>
       <c r="J72">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="K72">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N72">
+        <v>9</v>
+      </c>
+      <c r="O72">
         <v>11</v>
-      </c>
-      <c r="O72">
-        <v>5</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -3983,34 +3983,34 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>907</v>
+        <v>900.5</v>
       </c>
       <c r="C73">
-        <v>185.3137083053589</v>
+        <v>192.7279218435287</v>
       </c>
       <c r="D73">
-        <v>0.3749145248520829</v>
+        <v>0.3924956702093441</v>
       </c>
       <c r="E73">
-        <v>0.08516251514971732</v>
+        <v>0.09220220430228455</v>
       </c>
       <c r="F73">
-        <v>0.01862503682274669</v>
+        <v>0.01668396629178764</v>
       </c>
       <c r="G73">
-        <v>0.005712602207665775</v>
+        <v>0.003934295158282364</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73">
         <v>23</v>
       </c>
       <c r="J73">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="K73">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="L73">
         <v>4</v>
@@ -4019,10 +4019,10 @@
         <v>4</v>
       </c>
       <c r="N73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -4033,46 +4033,46 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>972.5</v>
+        <v>945.5</v>
       </c>
       <c r="C74">
-        <v>192.7279218435287</v>
+        <v>184.7279218435287</v>
       </c>
       <c r="D74">
-        <v>0.3714565434056367</v>
+        <v>0.3631937093477277</v>
       </c>
       <c r="E74">
-        <v>0.08334253397763097</v>
+        <v>0.07920121346924003</v>
       </c>
       <c r="F74">
-        <v>0.01494585068562466</v>
+        <v>0.01439761274320098</v>
       </c>
       <c r="G74">
-        <v>0.004551415697273001</v>
+        <v>0.00408440323787797</v>
       </c>
       <c r="H74">
         <v>13</v>
       </c>
       <c r="I74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K74">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N74">
         <v>11</v>
       </c>
       <c r="O74">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -4083,22 +4083,22 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>870.5</v>
+        <v>907</v>
       </c>
       <c r="C75">
-        <v>185.2132030725479</v>
+        <v>185.3137083053589</v>
       </c>
       <c r="D75">
-        <v>0.3937589011982222</v>
+        <v>0.3749145248520829</v>
       </c>
       <c r="E75">
-        <v>0.09596385387697885</v>
+        <v>0.08516251514971732</v>
       </c>
       <c r="F75">
-        <v>0.02238457592402639</v>
+        <v>0.01862503682274669</v>
       </c>
       <c r="G75">
-        <v>0.007656167884998469</v>
+        <v>0.005712602207665775</v>
       </c>
       <c r="H75">
         <v>14</v>
@@ -4107,22 +4107,22 @@
         <v>23</v>
       </c>
       <c r="J75">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="K75">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O75">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -4133,46 +4133,46 @@
         <v>6</v>
       </c>
       <c r="B76">
-        <v>939</v>
+        <v>972.5</v>
       </c>
       <c r="C76">
-        <v>192.1421353816986</v>
+        <v>192.7279218435287</v>
       </c>
       <c r="D76">
-        <v>0.3972532258692698</v>
+        <v>0.3714565434056367</v>
       </c>
       <c r="E76">
-        <v>0.09751864174591993</v>
+        <v>0.08334253397763097</v>
       </c>
       <c r="F76">
-        <v>0.01404815927981629</v>
+        <v>0.01494585068562466</v>
       </c>
       <c r="G76">
-        <v>0.003415386972380028</v>
+        <v>0.004551415697273001</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76">
         <v>24</v>
       </c>
       <c r="J76">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="K76">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="L76">
         <v>4</v>
       </c>
       <c r="M76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -4183,46 +4183,46 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>938</v>
+        <v>870.5</v>
       </c>
       <c r="C77">
-        <v>184.1421353816986</v>
+        <v>185.2132030725479</v>
       </c>
       <c r="D77">
-        <v>0.3592722618070001</v>
+        <v>0.3937589011982222</v>
       </c>
       <c r="E77">
-        <v>0.07690609496126988</v>
+        <v>0.09596385387697885</v>
       </c>
       <c r="F77">
-        <v>0.01591875844386312</v>
+        <v>0.02238457592402639</v>
       </c>
       <c r="G77">
-        <v>0.004834707125040894</v>
+        <v>0.007656167884998469</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I77">
         <v>23</v>
       </c>
       <c r="J77">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K77">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -4233,43 +4233,43 @@
         <v>6</v>
       </c>
       <c r="B78">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C78">
-        <v>193.3137083053589</v>
+        <v>192.1421353816986</v>
       </c>
       <c r="D78">
-        <v>0.372667168560425</v>
+        <v>0.3972532258692698</v>
       </c>
       <c r="E78">
-        <v>0.08048135465068629</v>
+        <v>0.09751864174591993</v>
       </c>
       <c r="F78">
-        <v>0.0169414522406761</v>
+        <v>0.01404815927981629</v>
       </c>
       <c r="G78">
-        <v>0.004495823666823329</v>
+        <v>0.003415386972380028</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J78">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="K78">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
         <v>8</v>
       </c>
-      <c r="M78">
-        <v>4</v>
-      </c>
       <c r="N78">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O78">
         <v>14</v>
@@ -4280,49 +4280,49 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>1561</v>
+        <v>938</v>
       </c>
       <c r="C79">
-        <v>177.7989895343781</v>
+        <v>184.1421353816986</v>
       </c>
       <c r="D79">
-        <v>0.215312209870383</v>
+        <v>0.3592722618070001</v>
       </c>
       <c r="E79">
-        <v>0.0190507484907338</v>
+        <v>0.07690609496126988</v>
       </c>
       <c r="F79">
-        <v>3.13472572096964E-05</v>
+        <v>0.01591875844386312</v>
       </c>
       <c r="G79">
-        <v>6.576126881708806E-06</v>
+        <v>0.004834707125040894</v>
       </c>
       <c r="H79">
         <v>13</v>
       </c>
       <c r="I79">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J79">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="K79">
-        <v>555</v>
+        <v>334</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="O79">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -4330,49 +4330,49 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>1531</v>
+        <v>927</v>
       </c>
       <c r="C80">
-        <v>175.7989895343781</v>
+        <v>193.3137083053589</v>
       </c>
       <c r="D80">
-        <v>0.2134571432297518</v>
+        <v>0.372667168560425</v>
       </c>
       <c r="E80">
-        <v>0.01846440246829272</v>
+        <v>0.08048135465068629</v>
       </c>
       <c r="F80">
-        <v>3.447065757932419E-05</v>
+        <v>0.0169414522406761</v>
       </c>
       <c r="G80">
-        <v>5.271686757347213E-06</v>
+        <v>0.004495823666823329</v>
       </c>
       <c r="H80">
         <v>14</v>
       </c>
       <c r="I80">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J80">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="K80">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="O80">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -4383,49 +4383,49 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>1575.5</v>
+        <v>1561</v>
       </c>
       <c r="C81">
-        <v>176.3847759962082</v>
+        <v>177.7989895343781</v>
       </c>
       <c r="D81">
-        <v>0.2119375464491038</v>
+        <v>0.215312209870383</v>
       </c>
       <c r="E81">
-        <v>0.01782272820024059</v>
+        <v>0.0190507484907338</v>
       </c>
       <c r="F81">
-        <v>9.34530715955247E-06</v>
+        <v>3.13472572096964E-05</v>
       </c>
       <c r="G81">
-        <v>2.902005757774693E-06</v>
+        <v>6.576126881708806E-06</v>
       </c>
       <c r="H81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I81">
         <v>29</v>
       </c>
       <c r="J81">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K81">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4433,46 +4433,46 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>1571</v>
+        <v>1531</v>
       </c>
       <c r="C82">
         <v>175.7989895343781</v>
       </c>
       <c r="D82">
-        <v>0.2111628979755985</v>
+        <v>0.2134571432297518</v>
       </c>
       <c r="E82">
-        <v>0.01755985504783449</v>
+        <v>0.01846440246829272</v>
       </c>
       <c r="F82">
-        <v>1.759694054023239E-05</v>
+        <v>3.447065757932419E-05</v>
       </c>
       <c r="G82">
-        <v>2.646238475002773E-06</v>
+        <v>5.271686757347213E-06</v>
       </c>
       <c r="H82">
         <v>14</v>
       </c>
       <c r="I82">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J82">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="K82">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N82">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O82">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -4483,49 +4483,49 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>1551.5</v>
+        <v>1575.5</v>
       </c>
       <c r="C83">
-        <v>178.3847759962082</v>
+        <v>176.3847759962082</v>
       </c>
       <c r="D83">
-        <v>0.217251780913179</v>
+        <v>0.2119375464491038</v>
       </c>
       <c r="E83">
-        <v>0.01976042695409775</v>
+        <v>0.01782272820024059</v>
       </c>
       <c r="F83">
-        <v>3.017136338899006E-05</v>
+        <v>9.34530715955247E-06</v>
       </c>
       <c r="G83">
-        <v>7.071926086129545E-06</v>
+        <v>2.902005757774693E-06</v>
       </c>
       <c r="H83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I83">
         <v>29</v>
       </c>
       <c r="J83">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="K83">
-        <v>543</v>
+        <v>464</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N83">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O83">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4533,49 +4533,49 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="C84">
-        <v>176.9705624580383</v>
+        <v>175.7989895343781</v>
       </c>
       <c r="D84">
-        <v>0.2128275531072638</v>
+        <v>0.2111628979755985</v>
       </c>
       <c r="E84">
-        <v>0.01807052390938892</v>
+        <v>0.01755985504783449</v>
       </c>
       <c r="F84">
-        <v>3.546384101143998E-05</v>
+        <v>1.759694054023239E-05</v>
       </c>
       <c r="G84">
-        <v>4.03587130524254E-06</v>
+        <v>2.646238475002773E-06</v>
       </c>
       <c r="H84">
         <v>14</v>
       </c>
       <c r="I84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J84">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="K84">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="L84">
         <v>18</v>
       </c>
       <c r="M84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N84">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O84">
         <v>16</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4583,46 +4583,46 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>1585.5</v>
+        <v>1551.5</v>
       </c>
       <c r="C85">
-        <v>176.3847759962082</v>
+        <v>178.3847759962082</v>
       </c>
       <c r="D85">
-        <v>0.2130389860545405</v>
+        <v>0.217251780913179</v>
       </c>
       <c r="E85">
-        <v>0.01818558693008591</v>
+        <v>0.01976042695409775</v>
       </c>
       <c r="F85">
-        <v>1.522585232319386E-05</v>
+        <v>3.017136338899006E-05</v>
       </c>
       <c r="G85">
-        <v>2.550083496343383E-06</v>
+        <v>7.071926086129545E-06</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I85">
         <v>29</v>
       </c>
       <c r="J85">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="K85">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L85">
         <v>17</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>54</v>
       </c>
       <c r="O85">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -4633,49 +4633,49 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>1629</v>
+        <v>1581</v>
       </c>
       <c r="C86">
         <v>176.9705624580383</v>
       </c>
       <c r="D86">
-        <v>0.2100087616764172</v>
+        <v>0.2128275531072638</v>
       </c>
       <c r="E86">
-        <v>0.01697078481939138</v>
+        <v>0.01807052390938892</v>
       </c>
       <c r="F86">
-        <v>7.064965622342302E-07</v>
+        <v>3.546384101143998E-05</v>
       </c>
       <c r="G86">
-        <v>2.475829830533251E-07</v>
+        <v>4.03587130524254E-06</v>
       </c>
       <c r="H86">
         <v>14</v>
       </c>
       <c r="I86">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J86">
-        <v>548</v>
+        <v>385</v>
       </c>
       <c r="K86">
-        <v>561</v>
+        <v>468</v>
       </c>
       <c r="L86">
         <v>18</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O86">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4683,49 +4683,49 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>1548.5</v>
+        <v>1585.5</v>
       </c>
       <c r="C87">
-        <v>173.5563489198685</v>
+        <v>176.3847759962082</v>
       </c>
       <c r="D87">
-        <v>0.2128834324807954</v>
+        <v>0.2130389860545405</v>
       </c>
       <c r="E87">
-        <v>0.01820937952916211</v>
+        <v>0.01818558693008591</v>
       </c>
       <c r="F87">
-        <v>4.095351154371988E-05</v>
+        <v>1.522585232319386E-05</v>
       </c>
       <c r="G87">
-        <v>5.920962973634403E-06</v>
+        <v>2.550083496343383E-06</v>
       </c>
       <c r="H87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J87">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="K87">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N87">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O87">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4733,22 +4733,22 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="C88">
         <v>176.9705624580383</v>
       </c>
       <c r="D88">
-        <v>0.212781698060569</v>
+        <v>0.2100087616764172</v>
       </c>
       <c r="E88">
-        <v>0.01794896702319609</v>
+        <v>0.01697078481939138</v>
       </c>
       <c r="F88">
-        <v>7.780945105303514E-06</v>
+        <v>7.064965622342302E-07</v>
       </c>
       <c r="G88">
-        <v>1.896196227491921E-06</v>
+        <v>2.475829830533251E-07</v>
       </c>
       <c r="H88">
         <v>14</v>
@@ -4757,25 +4757,25 @@
         <v>29</v>
       </c>
       <c r="J88">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="K88">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="L88">
         <v>18</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N88">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O88">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4783,49 +4783,49 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <v>1559.5</v>
+        <v>1548.5</v>
       </c>
       <c r="C89">
         <v>173.5563489198685</v>
       </c>
       <c r="D89">
-        <v>0.21549555292623</v>
+        <v>0.2128834324807954</v>
       </c>
       <c r="E89">
-        <v>0.01923767972383033</v>
+        <v>0.01820937952916211</v>
       </c>
       <c r="F89">
-        <v>3.082854355104286E-05</v>
+        <v>4.095351154371988E-05</v>
       </c>
       <c r="G89">
-        <v>6.606086485782665E-06</v>
+        <v>5.920962973634403E-06</v>
       </c>
       <c r="H89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I89">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J89">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="K89">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N89">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4833,49 +4833,49 @@
         <v>7</v>
       </c>
       <c r="B90">
-        <v>1551.5</v>
+        <v>1607</v>
       </c>
       <c r="C90">
-        <v>178.3847759962082</v>
+        <v>176.9705624580383</v>
       </c>
       <c r="D90">
-        <v>0.217251780913179</v>
+        <v>0.212781698060569</v>
       </c>
       <c r="E90">
-        <v>0.01976042695409775</v>
+        <v>0.01794896702319609</v>
       </c>
       <c r="F90">
-        <v>3.017136338899006E-05</v>
+        <v>7.780945105303514E-06</v>
       </c>
       <c r="G90">
-        <v>7.071926086129545E-06</v>
+        <v>1.896196227491921E-06</v>
       </c>
       <c r="H90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I90">
         <v>29</v>
       </c>
       <c r="J90">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="K90">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N90">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="O90">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4883,22 +4883,22 @@
         <v>7</v>
       </c>
       <c r="B91">
-        <v>1544</v>
+        <v>1559.5</v>
       </c>
       <c r="C91">
-        <v>174.1421353816986</v>
+        <v>173.5563489198685</v>
       </c>
       <c r="D91">
-        <v>0.2158549141906634</v>
+        <v>0.21549555292623</v>
       </c>
       <c r="E91">
-        <v>0.01951617459308645</v>
+        <v>0.01923767972383033</v>
       </c>
       <c r="F91">
-        <v>2.534246698786836E-05</v>
+        <v>3.082854355104286E-05</v>
       </c>
       <c r="G91">
-        <v>7.416760779638125E-06</v>
+        <v>6.606086485782665E-06</v>
       </c>
       <c r="H91">
         <v>14</v>
@@ -4907,19 +4907,19 @@
         <v>29</v>
       </c>
       <c r="J91">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="K91">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="L91">
         <v>17</v>
       </c>
       <c r="M91">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N91">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O91">
         <v>11</v>
@@ -4933,34 +4933,34 @@
         <v>7</v>
       </c>
       <c r="B92">
-        <v>1539</v>
+        <v>1551.5</v>
       </c>
       <c r="C92">
-        <v>177.7989895343781</v>
+        <v>178.3847759962082</v>
       </c>
       <c r="D92">
-        <v>0.218070493325197</v>
+        <v>0.217251780913179</v>
       </c>
       <c r="E92">
-        <v>0.02012334997559214</v>
+        <v>0.01976042695409775</v>
       </c>
       <c r="F92">
-        <v>3.225314101311568E-05</v>
+        <v>3.017136338899006E-05</v>
       </c>
       <c r="G92">
-        <v>6.951430579048511E-06</v>
+        <v>7.071926086129545E-06</v>
       </c>
       <c r="H92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92">
         <v>29</v>
       </c>
       <c r="J92">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="K92">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="L92">
         <v>17</v>
@@ -4969,10 +4969,10 @@
         <v>16</v>
       </c>
       <c r="N92">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O92">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P92">
         <v>1</v>
@@ -4983,22 +4983,22 @@
         <v>7</v>
       </c>
       <c r="B93">
-        <v>1629</v>
+        <v>1544</v>
       </c>
       <c r="C93">
-        <v>176.9705624580383</v>
+        <v>174.1421353816986</v>
       </c>
       <c r="D93">
-        <v>0.2100087616764172</v>
+        <v>0.2158549141906634</v>
       </c>
       <c r="E93">
-        <v>0.01697078481939138</v>
+        <v>0.01951617459308645</v>
       </c>
       <c r="F93">
-        <v>7.064965622342302E-07</v>
+        <v>2.534246698786836E-05</v>
       </c>
       <c r="G93">
-        <v>2.475829830533251E-07</v>
+        <v>7.416760779638125E-06</v>
       </c>
       <c r="H93">
         <v>14</v>
@@ -5007,22 +5007,22 @@
         <v>29</v>
       </c>
       <c r="J93">
-        <v>548</v>
+        <v>433</v>
       </c>
       <c r="K93">
-        <v>561</v>
+        <v>485</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N93">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O93">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -5033,46 +5033,46 @@
         <v>7</v>
       </c>
       <c r="B94">
-        <v>1589.5</v>
+        <v>1539</v>
       </c>
       <c r="C94">
-        <v>176.3847759962082</v>
+        <v>177.7989895343781</v>
       </c>
       <c r="D94">
-        <v>0.209628663263486</v>
+        <v>0.218070493325197</v>
       </c>
       <c r="E94">
-        <v>0.01700408732442486</v>
+        <v>0.02012334997559214</v>
       </c>
       <c r="F94">
-        <v>8.036676897824622E-06</v>
+        <v>3.225314101311568E-05</v>
       </c>
       <c r="G94">
-        <v>4.661496588121168E-07</v>
+        <v>6.951430579048511E-06</v>
       </c>
       <c r="H94">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J94">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="K94">
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N94">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O94">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -5083,46 +5083,46 @@
         <v>7</v>
       </c>
       <c r="B95">
-        <v>1544.5</v>
+        <v>1629</v>
       </c>
       <c r="C95">
-        <v>173.5563489198685</v>
+        <v>176.9705624580383</v>
       </c>
       <c r="D95">
-        <v>0.2129349185558173</v>
+        <v>0.2100087616764172</v>
       </c>
       <c r="E95">
-        <v>0.01841898119903679</v>
+        <v>0.01697078481939138</v>
       </c>
       <c r="F95">
-        <v>2.850859797781035E-05</v>
+        <v>7.064965622342302E-07</v>
       </c>
       <c r="G95">
-        <v>4.972944593280996E-06</v>
+        <v>2.475829830533251E-07</v>
       </c>
       <c r="H95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95">
         <v>29</v>
       </c>
       <c r="J95">
-        <v>431</v>
+        <v>548</v>
       </c>
       <c r="K95">
-        <v>373</v>
+        <v>561</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M95">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N95">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O95">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -5133,46 +5133,46 @@
         <v>7</v>
       </c>
       <c r="B96">
-        <v>1554</v>
+        <v>1589.5</v>
       </c>
       <c r="C96">
-        <v>172.9705624580383</v>
+        <v>176.3847759962082</v>
       </c>
       <c r="D96">
-        <v>0.2127082921891623</v>
+        <v>0.209628663263486</v>
       </c>
       <c r="E96">
-        <v>0.01825294705462298</v>
+        <v>0.01700408732442486</v>
       </c>
       <c r="F96">
-        <v>2.747399642010348E-05</v>
+        <v>8.036676897824622E-06</v>
       </c>
       <c r="G96">
-        <v>5.206728847489171E-06</v>
+        <v>4.661496588121168E-07</v>
       </c>
       <c r="H96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I96">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J96">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="K96">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N96">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O96">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5180,49 +5180,49 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>1470.5</v>
+        <v>1544.5</v>
       </c>
       <c r="C97">
-        <v>205.2132030725479</v>
+        <v>173.5563489198685</v>
       </c>
       <c r="D97">
-        <v>0.2265340484258441</v>
+        <v>0.2129349185558173</v>
       </c>
       <c r="E97">
-        <v>0.02082389347064176</v>
+        <v>0.01841898119903679</v>
       </c>
       <c r="F97">
-        <v>0.0002162933446294275</v>
+        <v>2.850859797781035E-05</v>
       </c>
       <c r="G97">
-        <v>0.0001004274914139766</v>
+        <v>4.972944593280996E-06</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J97">
-        <v>546</v>
+        <v>431</v>
       </c>
       <c r="K97">
-        <v>494</v>
+        <v>373</v>
       </c>
       <c r="L97">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M97">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N97">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="O97">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -5230,49 +5230,49 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>1417</v>
+        <v>1554</v>
       </c>
       <c r="C98">
-        <v>206.6274166107178</v>
+        <v>172.9705624580383</v>
       </c>
       <c r="D98">
-        <v>0.2337901785355365</v>
+        <v>0.2127082921891623</v>
       </c>
       <c r="E98">
-        <v>0.02349369718736593</v>
+        <v>0.01825294705462298</v>
       </c>
       <c r="F98">
-        <v>0.0001712451981368684</v>
+        <v>2.747399642010348E-05</v>
       </c>
       <c r="G98">
-        <v>0.0001294237953084788</v>
+        <v>5.206728847489171E-06</v>
       </c>
       <c r="H98">
+        <v>13</v>
+      </c>
+      <c r="I98">
+        <v>29</v>
+      </c>
+      <c r="J98">
+        <v>448</v>
+      </c>
+      <c r="K98">
+        <v>522</v>
+      </c>
+      <c r="L98">
         <v>15</v>
       </c>
-      <c r="I98">
-        <v>28</v>
-      </c>
-      <c r="J98">
-        <v>457</v>
-      </c>
-      <c r="K98">
-        <v>334</v>
-      </c>
-      <c r="L98">
-        <v>25</v>
-      </c>
       <c r="M98">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O98">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -5283,22 +5283,22 @@
         <v>8</v>
       </c>
       <c r="B99">
-        <v>1480.5</v>
+        <v>1470.5</v>
       </c>
       <c r="C99">
         <v>205.2132030725479</v>
       </c>
       <c r="D99">
-        <v>0.2248994316893879</v>
+        <v>0.2265340484258441</v>
       </c>
       <c r="E99">
-        <v>0.01961019720647077</v>
+        <v>0.02082389347064176</v>
       </c>
       <c r="F99">
-        <v>0.0002406348035505254</v>
+        <v>0.0002162933446294275</v>
       </c>
       <c r="G99">
-        <v>0.0001169644839366395</v>
+        <v>0.0001004274914139766</v>
       </c>
       <c r="H99">
         <v>14</v>
@@ -5307,22 +5307,22 @@
         <v>28</v>
       </c>
       <c r="J99">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="K99">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="L99">
+        <v>30</v>
+      </c>
+      <c r="M99">
         <v>22</v>
       </c>
-      <c r="M99">
-        <v>24</v>
-      </c>
       <c r="N99">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O99">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -5383,22 +5383,22 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>1476.5</v>
+        <v>1480.5</v>
       </c>
       <c r="C101">
-        <v>209.2132030725479</v>
+        <v>205.2132030725479</v>
       </c>
       <c r="D101">
-        <v>0.2259714347865547</v>
+        <v>0.2248994316893879</v>
       </c>
       <c r="E101">
-        <v>0.01963417767768475</v>
+        <v>0.01961019720647077</v>
       </c>
       <c r="F101">
-        <v>0.0001645788242048108</v>
+        <v>0.0002406348035505254</v>
       </c>
       <c r="G101">
-        <v>0.0001130734411029392</v>
+        <v>0.0001169644839366395</v>
       </c>
       <c r="H101">
         <v>14</v>
@@ -5407,22 +5407,22 @@
         <v>28</v>
       </c>
       <c r="J101">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="K101">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="L101">
+        <v>22</v>
+      </c>
+      <c r="M101">
+        <v>24</v>
+      </c>
+      <c r="N101">
         <v>30</v>
       </c>
-      <c r="M101">
-        <v>21</v>
-      </c>
-      <c r="N101">
-        <v>24</v>
-      </c>
       <c r="O101">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -5433,22 +5433,22 @@
         <v>8</v>
       </c>
       <c r="B102">
-        <v>1474.5</v>
+        <v>1485.5</v>
       </c>
       <c r="C102">
-        <v>205.2132030725479</v>
+        <v>208.8700572252274</v>
       </c>
       <c r="D102">
-        <v>0.2247512925639063</v>
+        <v>0.2268345412036606</v>
       </c>
       <c r="E102">
-        <v>0.01995680535095947</v>
+        <v>0.01979582321899327</v>
       </c>
       <c r="F102">
-        <v>0.0002861616745011569</v>
+        <v>0.0001289643598423365</v>
       </c>
       <c r="G102">
-        <v>0.0001113155148609068</v>
+        <v>0.0001222157994385367</v>
       </c>
       <c r="H102">
         <v>14</v>
@@ -5457,25 +5457,25 @@
         <v>28</v>
       </c>
       <c r="J102">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="K102">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L102">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M102">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N102">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O102">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5483,46 +5483,46 @@
         <v>8</v>
       </c>
       <c r="B103">
-        <v>1497</v>
+        <v>1417.5</v>
       </c>
       <c r="C103">
-        <v>205.7989895343781</v>
+        <v>209.3553384542465</v>
       </c>
       <c r="D103">
-        <v>0.2258792760560912</v>
+        <v>0.227428580961911</v>
       </c>
       <c r="E103">
-        <v>0.02018714967431014</v>
+        <v>0.02029429550570236</v>
       </c>
       <c r="F103">
-        <v>0.0001999640877874765</v>
+        <v>0.0002381452048691787</v>
       </c>
       <c r="G103">
-        <v>0.0001018301102752384</v>
+        <v>0.0001584887994175597</v>
       </c>
       <c r="H103">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103">
         <v>28</v>
       </c>
       <c r="J103">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="K103">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="L103">
+        <v>26</v>
+      </c>
+      <c r="M103">
+        <v>24</v>
+      </c>
+      <c r="N103">
         <v>30</v>
       </c>
-      <c r="M103">
-        <v>21</v>
-      </c>
-      <c r="N103">
-        <v>26</v>
-      </c>
       <c r="O103">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P103">
         <v>1</v>
@@ -5533,46 +5533,46 @@
         <v>8</v>
       </c>
       <c r="B104">
-        <v>1497</v>
+        <v>1417</v>
       </c>
       <c r="C104">
-        <v>209.7989895343781</v>
+        <v>206.6274166107178</v>
       </c>
       <c r="D104">
-        <v>0.2270061195297521</v>
+        <v>0.2337901785355365</v>
       </c>
       <c r="E104">
-        <v>0.02007624888120208</v>
+        <v>0.02349369718736593</v>
       </c>
       <c r="F104">
-        <v>0.0001991603195054191</v>
+        <v>0.0001712451981368684</v>
       </c>
       <c r="G104">
-        <v>0.0001207773286792575</v>
+        <v>0.0001294237953084788</v>
       </c>
       <c r="H104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104">
         <v>28</v>
       </c>
       <c r="J104">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="K104">
-        <v>450</v>
+        <v>334</v>
       </c>
       <c r="L104">
+        <v>25</v>
+      </c>
+      <c r="M104">
+        <v>22</v>
+      </c>
+      <c r="N104">
         <v>30</v>
       </c>
-      <c r="M104">
-        <v>21</v>
-      </c>
-      <c r="N104">
-        <v>26</v>
-      </c>
       <c r="O104">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P104">
         <v>1</v>
@@ -5583,22 +5583,22 @@
         <v>8</v>
       </c>
       <c r="B105">
-        <v>1413.5</v>
+        <v>1476.5</v>
       </c>
       <c r="C105">
-        <v>210.0416301488876</v>
+        <v>209.2132030725479</v>
       </c>
       <c r="D105">
-        <v>0.2313424723868196</v>
+        <v>0.2259714347865547</v>
       </c>
       <c r="E105">
-        <v>0.02250768751939251</v>
+        <v>0.01963417767768475</v>
       </c>
       <c r="F105">
-        <v>0.0002045809412943861</v>
+        <v>0.0001645788242048108</v>
       </c>
       <c r="G105">
-        <v>0.0001323647419992008</v>
+        <v>0.0001130734411029392</v>
       </c>
       <c r="H105">
         <v>14</v>
@@ -5607,22 +5607,22 @@
         <v>28</v>
       </c>
       <c r="J105">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="K105">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L105">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N105">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O105">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -5633,22 +5633,22 @@
         <v>8</v>
       </c>
       <c r="B106">
-        <v>1476.5</v>
+        <v>1474.5</v>
       </c>
       <c r="C106">
-        <v>209.2132030725479</v>
+        <v>205.2132030725479</v>
       </c>
       <c r="D106">
-        <v>0.2259714347865547</v>
+        <v>0.2247512925639063</v>
       </c>
       <c r="E106">
-        <v>0.01963417767768475</v>
+        <v>0.01995680535095947</v>
       </c>
       <c r="F106">
-        <v>0.0001645788242048108</v>
+        <v>0.0002861616745011569</v>
       </c>
       <c r="G106">
-        <v>0.0001130734411029392</v>
+        <v>0.0001113155148609068</v>
       </c>
       <c r="H106">
         <v>14</v>
@@ -5657,25 +5657,25 @@
         <v>28</v>
       </c>
       <c r="J106">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="K106">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="L106">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M106">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N106">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O106">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5683,48 +5683,248 @@
         <v>8</v>
       </c>
       <c r="B107">
-        <v>1441</v>
+        <v>1497</v>
       </c>
       <c r="C107">
-        <v>202.6274166107178</v>
+        <v>205.7989895343781</v>
       </c>
       <c r="D107">
-        <v>0.2317149618916775</v>
+        <v>0.2258792760560912</v>
       </c>
       <c r="E107">
-        <v>0.02241776495688667</v>
+        <v>0.02018714967431014</v>
       </c>
       <c r="F107">
-        <v>0.0002250041843343975</v>
+        <v>0.0001999640877874765</v>
       </c>
       <c r="G107">
-        <v>0.0001438209398804589</v>
+        <v>0.0001018301102752384</v>
       </c>
       <c r="H107">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I107">
         <v>28</v>
       </c>
       <c r="J107">
+        <v>541</v>
+      </c>
+      <c r="K107">
+        <v>471</v>
+      </c>
+      <c r="L107">
+        <v>30</v>
+      </c>
+      <c r="M107">
+        <v>21</v>
+      </c>
+      <c r="N107">
+        <v>26</v>
+      </c>
+      <c r="O107">
+        <v>32</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>1497</v>
+      </c>
+      <c r="C108">
+        <v>209.7989895343781</v>
+      </c>
+      <c r="D108">
+        <v>0.2270061195297521</v>
+      </c>
+      <c r="E108">
+        <v>0.02007624888120208</v>
+      </c>
+      <c r="F108">
+        <v>0.0001991603195054191</v>
+      </c>
+      <c r="G108">
+        <v>0.0001207773286792575</v>
+      </c>
+      <c r="H108">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <v>28</v>
+      </c>
+      <c r="J108">
+        <v>538</v>
+      </c>
+      <c r="K108">
+        <v>450</v>
+      </c>
+      <c r="L108">
+        <v>30</v>
+      </c>
+      <c r="M108">
+        <v>21</v>
+      </c>
+      <c r="N108">
+        <v>26</v>
+      </c>
+      <c r="O108">
+        <v>37</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>1413.5</v>
+      </c>
+      <c r="C109">
+        <v>210.0416301488876</v>
+      </c>
+      <c r="D109">
+        <v>0.2313424723868196</v>
+      </c>
+      <c r="E109">
+        <v>0.02250768751939251</v>
+      </c>
+      <c r="F109">
+        <v>0.0002045809412943861</v>
+      </c>
+      <c r="G109">
+        <v>0.0001323647419992008</v>
+      </c>
+      <c r="H109">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>28</v>
+      </c>
+      <c r="J109">
+        <v>451</v>
+      </c>
+      <c r="K109">
+        <v>396</v>
+      </c>
+      <c r="L109">
+        <v>25</v>
+      </c>
+      <c r="M109">
+        <v>22</v>
+      </c>
+      <c r="N109">
+        <v>36</v>
+      </c>
+      <c r="O109">
+        <v>16</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>1476.5</v>
+      </c>
+      <c r="C110">
+        <v>209.2132030725479</v>
+      </c>
+      <c r="D110">
+        <v>0.2259714347865547</v>
+      </c>
+      <c r="E110">
+        <v>0.01963417767768475</v>
+      </c>
+      <c r="F110">
+        <v>0.0001645788242048108</v>
+      </c>
+      <c r="G110">
+        <v>0.0001130734411029392</v>
+      </c>
+      <c r="H110">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <v>28</v>
+      </c>
+      <c r="J110">
+        <v>478</v>
+      </c>
+      <c r="K110">
+        <v>398</v>
+      </c>
+      <c r="L110">
+        <v>30</v>
+      </c>
+      <c r="M110">
+        <v>21</v>
+      </c>
+      <c r="N110">
+        <v>24</v>
+      </c>
+      <c r="O110">
+        <v>34</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>1441</v>
+      </c>
+      <c r="C111">
+        <v>202.6274166107178</v>
+      </c>
+      <c r="D111">
+        <v>0.2317149618916775</v>
+      </c>
+      <c r="E111">
+        <v>0.02241776495688667</v>
+      </c>
+      <c r="F111">
+        <v>0.0002250041843343975</v>
+      </c>
+      <c r="G111">
+        <v>0.0001438209398804589</v>
+      </c>
+      <c r="H111">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>28</v>
+      </c>
+      <c r="J111">
         <v>496</v>
       </c>
-      <c r="K107">
+      <c r="K111">
         <v>368</v>
       </c>
-      <c r="L107">
+      <c r="L111">
         <v>25</v>
       </c>
-      <c r="M107">
+      <c r="M111">
         <v>22</v>
       </c>
-      <c r="N107">
+      <c r="N111">
         <v>34</v>
       </c>
-      <c r="O107">
+      <c r="O111">
         <v>37</v>
       </c>
-      <c r="P107">
+      <c r="P111">
         <v>1</v>
       </c>
     </row>
